--- a/南区基点.xlsx
+++ b/南区基点.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16712" uniqueCount="6496">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18400" uniqueCount="7019">
   <si>
     <t>dInstal</t>
   </si>
@@ -19500,6 +19500,1575 @@
   </si>
   <si>
     <t>2023-06-30 23:00:02</t>
+  </si>
+  <si>
+    <t>2023-07-01 01:00:33</t>
+  </si>
+  <si>
+    <t>2023-07-01 02:00:33</t>
+  </si>
+  <si>
+    <t>2023-07-01 03:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-01 04:00:04</t>
+  </si>
+  <si>
+    <t>2023-07-01 05:00:02</t>
+  </si>
+  <si>
+    <t>2023-07-01 06:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-01 07:00:04</t>
+  </si>
+  <si>
+    <t>2023-07-01 09:00:02</t>
+  </si>
+  <si>
+    <t>2023-07-01 10:00:02</t>
+  </si>
+  <si>
+    <t>2023-07-01 12:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-01 13:00:02</t>
+  </si>
+  <si>
+    <t>2023-07-01 15:00:02</t>
+  </si>
+  <si>
+    <t>38.739999999999995</t>
+  </si>
+  <si>
+    <t>2023-07-01 17:00:04</t>
+  </si>
+  <si>
+    <t>40.88</t>
+  </si>
+  <si>
+    <t>35.95</t>
+  </si>
+  <si>
+    <t>2023-07-01 18:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-01 19:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-01 21:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-01 22:00:03</t>
+  </si>
+  <si>
+    <t>17.39</t>
+  </si>
+  <si>
+    <t>2023-07-01 23:00:02</t>
+  </si>
+  <si>
+    <t>2023-07-02 00:00:02</t>
+  </si>
+  <si>
+    <t>2023-07-02 01:00:02</t>
+  </si>
+  <si>
+    <t>2023-07-02 02:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-02 03:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-02 04:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-02 05:00:03</t>
+  </si>
+  <si>
+    <t>29.81</t>
+  </si>
+  <si>
+    <t>2023-07-02 06:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-02 07:00:04</t>
+  </si>
+  <si>
+    <t>2023-07-02 08:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-02 09:00:02</t>
+  </si>
+  <si>
+    <t>2023-07-02 10:00:02</t>
+  </si>
+  <si>
+    <t>2023-07-02 11:00:04</t>
+  </si>
+  <si>
+    <t>38.769999999999996</t>
+  </si>
+  <si>
+    <t>2023-07-02 12:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-02 14:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-02 16:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-02 18:00:04</t>
+  </si>
+  <si>
+    <t>2023-07-02 20:00:04</t>
+  </si>
+  <si>
+    <t>2023-07-02 22:00:02</t>
+  </si>
+  <si>
+    <t>2023-07-02 23:00:04</t>
+  </si>
+  <si>
+    <t>2023-07-03 00:00:02</t>
+  </si>
+  <si>
+    <t>2023-07-03 01:00:02</t>
+  </si>
+  <si>
+    <t>2023-07-03 02:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-03 04:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-03 05:00:05</t>
+  </si>
+  <si>
+    <t>2023-07-03 06:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-03 07:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-03 08:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-03 09:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-03 10:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-03 11:00:02</t>
+  </si>
+  <si>
+    <t>2023-07-03 12:00:02</t>
+  </si>
+  <si>
+    <t>37.31</t>
+  </si>
+  <si>
+    <t>2023-07-03 14:00:03</t>
+  </si>
+  <si>
+    <t>36.61</t>
+  </si>
+  <si>
+    <t>2023-07-03 15:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-03 16:00:04</t>
+  </si>
+  <si>
+    <t>2023-07-03 18:00:04</t>
+  </si>
+  <si>
+    <t>43.50</t>
+  </si>
+  <si>
+    <t>20.099999999999994</t>
+  </si>
+  <si>
+    <t>2023-07-03 19:00:03</t>
+  </si>
+  <si>
+    <t>21.22999999999999</t>
+  </si>
+  <si>
+    <t>2023-07-03 20:00:04</t>
+  </si>
+  <si>
+    <t>2023-07-03 21:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-04 01:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-04 03:00:04</t>
+  </si>
+  <si>
+    <t>2023-07-04 05:00:02</t>
+  </si>
+  <si>
+    <t>2023-07-04 06:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-04 07:00:33</t>
+  </si>
+  <si>
+    <t>2023-07-04 08:00:04</t>
+  </si>
+  <si>
+    <t>2023-07-04 09:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-04 10:00:02</t>
+  </si>
+  <si>
+    <t>2023-07-04 11:00:04</t>
+  </si>
+  <si>
+    <t>38.88</t>
+  </si>
+  <si>
+    <t>2023-07-04 14:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-04 16:00:14</t>
+  </si>
+  <si>
+    <t>39.19</t>
+  </si>
+  <si>
+    <t>37.459999999999994</t>
+  </si>
+  <si>
+    <t>2023-07-04 17:00:11</t>
+  </si>
+  <si>
+    <t>37.739999999999995</t>
+  </si>
+  <si>
+    <t>2023-07-04 18:00:04</t>
+  </si>
+  <si>
+    <t>30.36999999999999</t>
+  </si>
+  <si>
+    <t>2023-07-04 19:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-04 20:00:02</t>
+  </si>
+  <si>
+    <t>21.17</t>
+  </si>
+  <si>
+    <t>2023-07-04 22:00:02</t>
+  </si>
+  <si>
+    <t>18.33999999999999</t>
+  </si>
+  <si>
+    <t>2023-07-05 00:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-05 02:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-05 04:00:02</t>
+  </si>
+  <si>
+    <t>2023-07-05 06:00:48</t>
+  </si>
+  <si>
+    <t>2023-07-05 07:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-05 08:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-05 10:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-05 11:00:02</t>
+  </si>
+  <si>
+    <t>2023-07-05 12:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-05 16:00:46</t>
+  </si>
+  <si>
+    <t>2023-07-05 17:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-05 18:00:02</t>
+  </si>
+  <si>
+    <t>2023-07-05 19:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-05 20:00:02</t>
+  </si>
+  <si>
+    <t>2023-07-05 22:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-06 00:00:04</t>
+  </si>
+  <si>
+    <t>2023-07-06 02:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-06 04:00:04</t>
+  </si>
+  <si>
+    <t>2023-07-06 05:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-06 07:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-06 08:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-06 09:00:04</t>
+  </si>
+  <si>
+    <t>2023-07-06 10:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-06 11:00:03</t>
+  </si>
+  <si>
+    <t>39.719999999999985</t>
+  </si>
+  <si>
+    <t>2023-07-06 12:00:03</t>
+  </si>
+  <si>
+    <t>39.3</t>
+  </si>
+  <si>
+    <t>2023-07-06 13:00:32</t>
+  </si>
+  <si>
+    <t>42.56</t>
+  </si>
+  <si>
+    <t>2023-07-06 15:00:05</t>
+  </si>
+  <si>
+    <t>2023-07-06 16:00:04</t>
+  </si>
+  <si>
+    <t>2023-07-06 17:00:44</t>
+  </si>
+  <si>
+    <t>36.17999999999999</t>
+  </si>
+  <si>
+    <t>2023-07-06 20:00:02</t>
+  </si>
+  <si>
+    <t>21.549999999999997</t>
+  </si>
+  <si>
+    <t>2023-07-06 23:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-07 02:00:04</t>
+  </si>
+  <si>
+    <t>2023-07-07 05:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-07 08:00:04</t>
+  </si>
+  <si>
+    <t>2023-07-07 10:00:05</t>
+  </si>
+  <si>
+    <t>2023-07-07 13:00:02</t>
+  </si>
+  <si>
+    <t>2023-07-07 15:00:04</t>
+  </si>
+  <si>
+    <t>42.88</t>
+  </si>
+  <si>
+    <t>2023-07-07 18:00:04</t>
+  </si>
+  <si>
+    <t>44.75</t>
+  </si>
+  <si>
+    <t>2023-07-07 23:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-08 02:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-08 04:00:05</t>
+  </si>
+  <si>
+    <t>2023-07-08 07:00:05</t>
+  </si>
+  <si>
+    <t>2023-07-08 11:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-08 14:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-08 16:00:03</t>
+  </si>
+  <si>
+    <t>38.11999999999999</t>
+  </si>
+  <si>
+    <t>2023-07-08 18:00:05</t>
+  </si>
+  <si>
+    <t>44.31</t>
+  </si>
+  <si>
+    <t>21.129999999999995</t>
+  </si>
+  <si>
+    <t>2023-07-08 21:00:03</t>
+  </si>
+  <si>
+    <t>38.81</t>
+  </si>
+  <si>
+    <t>2023-07-08 23:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-09 02:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-09 05:00:02</t>
+  </si>
+  <si>
+    <t>2023-07-09 08:00:02</t>
+  </si>
+  <si>
+    <t>2023-07-09 11:00:04</t>
+  </si>
+  <si>
+    <t>2023-07-09 14:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-09 17:00:04</t>
+  </si>
+  <si>
+    <t>2023-07-09 20:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-09 23:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-10 02:00:04</t>
+  </si>
+  <si>
+    <t>2023-07-10 05:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-10 08:00:02</t>
+  </si>
+  <si>
+    <t>2023-07-10 11:00:01</t>
+  </si>
+  <si>
+    <t>33.81</t>
+  </si>
+  <si>
+    <t>40.86999999999999</t>
+  </si>
+  <si>
+    <t>2023-07-10 14:00:02</t>
+  </si>
+  <si>
+    <t>2023-07-10 17:00:07</t>
+  </si>
+  <si>
+    <t>2023-07-10 20:00:04</t>
+  </si>
+  <si>
+    <t>2023-07-10 23:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-11 02:00:04</t>
+  </si>
+  <si>
+    <t>2023-07-11 05:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-11 08:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-11 11:00:04</t>
+  </si>
+  <si>
+    <t>2023-07-11 14:00:04</t>
+  </si>
+  <si>
+    <t>2023-07-11 17:00:04</t>
+  </si>
+  <si>
+    <t>2023-07-11 19:00:02</t>
+  </si>
+  <si>
+    <t>41.69</t>
+  </si>
+  <si>
+    <t>20.39</t>
+  </si>
+  <si>
+    <t>2023-07-11 22:00:04</t>
+  </si>
+  <si>
+    <t>2023-07-12 01:00:04</t>
+  </si>
+  <si>
+    <t>2023-07-12 03:00:02</t>
+  </si>
+  <si>
+    <t>2023-07-12 06:00:33</t>
+  </si>
+  <si>
+    <t>2023-07-12 08:00:02</t>
+  </si>
+  <si>
+    <t>2023-07-12 11:00:06</t>
+  </si>
+  <si>
+    <t>2023-07-12 14:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-12 17:00:02</t>
+  </si>
+  <si>
+    <t>32.89999999999999</t>
+  </si>
+  <si>
+    <t>2023-07-12 19:00:07</t>
+  </si>
+  <si>
+    <t>43.81</t>
+  </si>
+  <si>
+    <t>2023-07-12 21:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-13 00:00:04</t>
+  </si>
+  <si>
+    <t>2023-07-13 02:00:04</t>
+  </si>
+  <si>
+    <t>2023-07-13 04:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-13 07:00:04</t>
+  </si>
+  <si>
+    <t>2023-07-13 10:00:02</t>
+  </si>
+  <si>
+    <t>2023-07-13 13:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-13 16:00:04</t>
+  </si>
+  <si>
+    <t>37.30999999999999</t>
+  </si>
+  <si>
+    <t>2023-07-13 19:00:04</t>
+  </si>
+  <si>
+    <t>2023-07-13 21:00:04</t>
+  </si>
+  <si>
+    <t>35.94</t>
+  </si>
+  <si>
+    <t>2023-07-13 23:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-14 01:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-14 03:00:05</t>
+  </si>
+  <si>
+    <t>2023-07-14 05:00:02</t>
+  </si>
+  <si>
+    <t>2023-07-14 08:00:02</t>
+  </si>
+  <si>
+    <t>2023-07-14 10:00:04</t>
+  </si>
+  <si>
+    <t>2023-07-14 13:00:04</t>
+  </si>
+  <si>
+    <t>2023-07-14 18:00:02</t>
+  </si>
+  <si>
+    <t>2023-07-14 21:00:04</t>
+  </si>
+  <si>
+    <t>2023-07-14 23:00:04</t>
+  </si>
+  <si>
+    <t>2023-07-15 01:00:04</t>
+  </si>
+  <si>
+    <t>2023-07-15 03:00:02</t>
+  </si>
+  <si>
+    <t>2023-07-15 05:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-15 08:00:02</t>
+  </si>
+  <si>
+    <t>2023-07-15 11:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-15 13:00:04</t>
+  </si>
+  <si>
+    <t>2023-07-15 15:00:04</t>
+  </si>
+  <si>
+    <t>43.75</t>
+  </si>
+  <si>
+    <t>37.260000000000005</t>
+  </si>
+  <si>
+    <t>2023-07-15 18:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-15 20:00:04</t>
+  </si>
+  <si>
+    <t>2023-07-15 22:00:04</t>
+  </si>
+  <si>
+    <t>2023-07-16 00:00:02</t>
+  </si>
+  <si>
+    <t>2023-07-16 02:00:06</t>
+  </si>
+  <si>
+    <t>2023-07-16 04:00:05</t>
+  </si>
+  <si>
+    <t>2023-07-16 07:00:02</t>
+  </si>
+  <si>
+    <t>2023-07-16 09:00:04</t>
+  </si>
+  <si>
+    <t>2023-07-16 11:00:06</t>
+  </si>
+  <si>
+    <t>2023-07-16 13:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-16 16:00:03</t>
+  </si>
+  <si>
+    <t>41.38</t>
+  </si>
+  <si>
+    <t>2023-07-16 19:00:02</t>
+  </si>
+  <si>
+    <t>2023-07-16 21:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-17 00:00:02</t>
+  </si>
+  <si>
+    <t>2023-07-17 03:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-17 05:00:04</t>
+  </si>
+  <si>
+    <t>2023-07-17 08:00:02</t>
+  </si>
+  <si>
+    <t>2023-07-17 10:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-17 13:00:02</t>
+  </si>
+  <si>
+    <t>2023-07-17 15:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-17 18:00:04</t>
+  </si>
+  <si>
+    <t>2023-07-17 21:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-17 23:00:04</t>
+  </si>
+  <si>
+    <t>22.00999999999999</t>
+  </si>
+  <si>
+    <t>2023-07-18 01:00:04</t>
+  </si>
+  <si>
+    <t>2023-07-18 03:00:02</t>
+  </si>
+  <si>
+    <t>2023-07-18 05:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-18 08:00:03</t>
+  </si>
+  <si>
+    <t>42.57000000000001</t>
+  </si>
+  <si>
+    <t>2023-07-18 10:00:04</t>
+  </si>
+  <si>
+    <t>2023-07-18 12:00:02</t>
+  </si>
+  <si>
+    <t>38.790000000000006</t>
+  </si>
+  <si>
+    <t>2023-07-18 14:00:04</t>
+  </si>
+  <si>
+    <t>41.00</t>
+  </si>
+  <si>
+    <t>39.08</t>
+  </si>
+  <si>
+    <t>2023-07-18 16:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-18 18:00:04</t>
+  </si>
+  <si>
+    <t>2023-07-18 20:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-18 22:00:02</t>
+  </si>
+  <si>
+    <t>2023-07-19 00:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-19 03:00:02</t>
+  </si>
+  <si>
+    <t>2023-07-19 05:00:04</t>
+  </si>
+  <si>
+    <t>2023-07-19 08:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-19 10:00:05</t>
+  </si>
+  <si>
+    <t>2023-07-19 12:00:04</t>
+  </si>
+  <si>
+    <t>2023-07-19 14:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-19 16:00:02</t>
+  </si>
+  <si>
+    <t>43.19</t>
+  </si>
+  <si>
+    <t>2023-07-19 18:00:04</t>
+  </si>
+  <si>
+    <t>2023-07-19 20:00:05</t>
+  </si>
+  <si>
+    <t>2023-07-19 22:00:04</t>
+  </si>
+  <si>
+    <t>20.61999999999999</t>
+  </si>
+  <si>
+    <t>2023-07-20 00:00:03</t>
+  </si>
+  <si>
+    <t>19.25999999999999</t>
+  </si>
+  <si>
+    <t>2023-07-20 02:00:02</t>
+  </si>
+  <si>
+    <t>2023-07-20 04:00:04</t>
+  </si>
+  <si>
+    <t>2023-07-20 07:00:03</t>
+  </si>
+  <si>
+    <t>39.8</t>
+  </si>
+  <si>
+    <t>2023-07-20 09:00:04</t>
+  </si>
+  <si>
+    <t>2023-07-20 11:00:03</t>
+  </si>
+  <si>
+    <t>40.38000000000001</t>
+  </si>
+  <si>
+    <t>2023-07-20 13:00:04</t>
+  </si>
+  <si>
+    <t>2023-07-20 15:00:02</t>
+  </si>
+  <si>
+    <t>2023-07-20 17:00:04</t>
+  </si>
+  <si>
+    <t>39.38</t>
+  </si>
+  <si>
+    <t>2023-07-20 20:00:02</t>
+  </si>
+  <si>
+    <t>2023-07-20 22:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-21 00:00:04</t>
+  </si>
+  <si>
+    <t>2023-07-21 02:00:02</t>
+  </si>
+  <si>
+    <t>2023-07-21 04:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-21 07:00:05</t>
+  </si>
+  <si>
+    <t>2023-07-21 09:00:05</t>
+  </si>
+  <si>
+    <t>2023-07-21 11:00:05</t>
+  </si>
+  <si>
+    <t>2023-07-21 13:00:02</t>
+  </si>
+  <si>
+    <t>38.63000000000001</t>
+  </si>
+  <si>
+    <t>2023-07-21 15:00:03</t>
+  </si>
+  <si>
+    <t>39.15999999999998</t>
+  </si>
+  <si>
+    <t>2023-07-21 17:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-21 19:00:04</t>
+  </si>
+  <si>
+    <t>2023-07-21 21:00:04</t>
+  </si>
+  <si>
+    <t>2023-07-21 23:00:04</t>
+  </si>
+  <si>
+    <t>17.459999999999994</t>
+  </si>
+  <si>
+    <t>2023-07-22 01:00:04</t>
+  </si>
+  <si>
+    <t>2023-07-22 03:00:03</t>
+  </si>
+  <si>
+    <t>19.61999999999999</t>
+  </si>
+  <si>
+    <t>2023-07-22 05:00:03</t>
+  </si>
+  <si>
+    <t>39.469999999999985</t>
+  </si>
+  <si>
+    <t>2023-07-22 08:00:04</t>
+  </si>
+  <si>
+    <t>2023-07-22 10:00:03</t>
+  </si>
+  <si>
+    <t>42.38000000000001</t>
+  </si>
+  <si>
+    <t>2023-07-22 13:00:04</t>
+  </si>
+  <si>
+    <t>2023-07-22 15:00:05</t>
+  </si>
+  <si>
+    <t>2023-07-22 17:00:02</t>
+  </si>
+  <si>
+    <t>43.44</t>
+  </si>
+  <si>
+    <t>2023-07-22 20:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-22 23:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-23 01:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-23 03:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-23 05:00:05</t>
+  </si>
+  <si>
+    <t>2023-07-23 08:00:04</t>
+  </si>
+  <si>
+    <t>2023-07-23 10:00:05</t>
+  </si>
+  <si>
+    <t>2023-07-23 13:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-23 15:00:04</t>
+  </si>
+  <si>
+    <t>2023-07-23 18:00:04</t>
+  </si>
+  <si>
+    <t>2023-07-23 20:00:05</t>
+  </si>
+  <si>
+    <t>2023-07-23 23:00:01</t>
+  </si>
+  <si>
+    <t>2023-07-24 01:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-24 04:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-24 07:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-24 09:00:04</t>
+  </si>
+  <si>
+    <t>39.249999999999986</t>
+  </si>
+  <si>
+    <t>2023-07-24 11:00:04</t>
+  </si>
+  <si>
+    <t>2023-07-24 13:00:05</t>
+  </si>
+  <si>
+    <t>2023-07-24 15:00:04</t>
+  </si>
+  <si>
+    <t>2023-07-24 17:00:04</t>
+  </si>
+  <si>
+    <t>40.50</t>
+  </si>
+  <si>
+    <t>40.42999999999999</t>
+  </si>
+  <si>
+    <t>2023-07-24 21:00:02</t>
+  </si>
+  <si>
+    <t>2023-07-24 23:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-25 01:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-25 03:00:04</t>
+  </si>
+  <si>
+    <t>2023-07-25 05:00:04</t>
+  </si>
+  <si>
+    <t>2023-07-25 08:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-25 10:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-25 13:00:26</t>
+  </si>
+  <si>
+    <t>2023-07-25 16:00:08</t>
+  </si>
+  <si>
+    <t>33.66</t>
+  </si>
+  <si>
+    <t>2023-07-25 18:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-25 21:00:04</t>
+  </si>
+  <si>
+    <t>2023-07-26 01:00:05</t>
+  </si>
+  <si>
+    <t>2023-07-26 04:00:34</t>
+  </si>
+  <si>
+    <t>2023-07-26 09:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-26 12:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-26 15:00:02</t>
+  </si>
+  <si>
+    <t>39.75</t>
+  </si>
+  <si>
+    <t>2023-07-26 18:00:04</t>
+  </si>
+  <si>
+    <t>34.459999999999994</t>
+  </si>
+  <si>
+    <t>2023-07-26 22:00:04</t>
+  </si>
+  <si>
+    <t>22.269999999999996</t>
+  </si>
+  <si>
+    <t>2023-07-27 02:00:04</t>
+  </si>
+  <si>
+    <t>2023-07-27 04:00:04</t>
+  </si>
+  <si>
+    <t>2023-07-27 07:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-27 11:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-27 14:00:02</t>
+  </si>
+  <si>
+    <t>2023-07-27 17:00:04</t>
+  </si>
+  <si>
+    <t>2023-07-27 20:00:04</t>
+  </si>
+  <si>
+    <t>2023-07-27 23:00:02</t>
+  </si>
+  <si>
+    <t>2023-07-28 02:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-28 04:00:05</t>
+  </si>
+  <si>
+    <t>2023-07-28 07:00:05</t>
+  </si>
+  <si>
+    <t>2023-07-28 09:00:04</t>
+  </si>
+  <si>
+    <t>2023-07-28 12:00:02</t>
+  </si>
+  <si>
+    <t>38.83999999999999</t>
+  </si>
+  <si>
+    <t>2023-07-28 15:00:03</t>
+  </si>
+  <si>
+    <t>41.68999999999998</t>
+  </si>
+  <si>
+    <t>2023-07-28 18:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-28 21:00:05</t>
+  </si>
+  <si>
+    <t>2023-07-28 23:00:03</t>
+  </si>
+  <si>
+    <t>43.260000000000005</t>
+  </si>
+  <si>
+    <t>2023-07-29 01:00:03</t>
+  </si>
+  <si>
+    <t>40.730000000000004</t>
+  </si>
+  <si>
+    <t>2023-07-29 03:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-29 05:00:04</t>
+  </si>
+  <si>
+    <t>41.290000000000006</t>
+  </si>
+  <si>
+    <t>2023-07-29 08:00:02</t>
+  </si>
+  <si>
+    <t>43.30999999999999</t>
+  </si>
+  <si>
+    <t>2023-07-29 10:00:04</t>
+  </si>
+  <si>
+    <t>2023-07-29 13:00:04</t>
+  </si>
+  <si>
+    <t>40.67999999999999</t>
+  </si>
+  <si>
+    <t>2023-07-29 16:00:03</t>
+  </si>
+  <si>
+    <t>39.39</t>
+  </si>
+  <si>
+    <t>2023-07-29 19:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-29 22:00:04</t>
+  </si>
+  <si>
+    <t>2023-07-30 01:00:02</t>
+  </si>
+  <si>
+    <t>2023-07-30 04:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-30 07:00:02</t>
+  </si>
+  <si>
+    <t>39.209999999999994</t>
+  </si>
+  <si>
+    <t>2023-07-30 09:00:03</t>
+  </si>
+  <si>
+    <t>37.489999999999995</t>
+  </si>
+  <si>
+    <t>2023-07-30 11:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-30 14:00:03</t>
+  </si>
+  <si>
+    <t>40.219999999999985</t>
+  </si>
+  <si>
+    <t>2023-07-30 17:00:04</t>
+  </si>
+  <si>
+    <t>2023-07-30 19:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-30 21:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-30 23:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-31 01:00:05</t>
+  </si>
+  <si>
+    <t>2023-07-31 04:00:32</t>
+  </si>
+  <si>
+    <t>17.25999999999999</t>
+  </si>
+  <si>
+    <t>2023-07-31 07:00:04</t>
+  </si>
+  <si>
+    <t>2023-07-31 09:00:04</t>
+  </si>
+  <si>
+    <t>2023-07-31 11:00:03</t>
+  </si>
+  <si>
+    <t>36.95</t>
+  </si>
+  <si>
+    <t>2023-07-31 14:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-31 16:00:02</t>
+  </si>
+  <si>
+    <t>45.31</t>
+  </si>
+  <si>
+    <t>40.8</t>
+  </si>
+  <si>
+    <t>2023-07-31 18:00:04</t>
+  </si>
+  <si>
+    <t>2023-07-31 20:00:02</t>
+  </si>
+  <si>
+    <t>2023-07-31 22:00:05</t>
+  </si>
+  <si>
+    <t>2023-08-01 00:00:04</t>
+  </si>
+  <si>
+    <t>2023-08-01 02:00:05</t>
+  </si>
+  <si>
+    <t>2023-08-01 04:00:04</t>
+  </si>
+  <si>
+    <t>2023-08-01 07:00:02</t>
+  </si>
+  <si>
+    <t>2023-08-01 09:00:04</t>
+  </si>
+  <si>
+    <t>2023-08-01 11:00:03</t>
+  </si>
+  <si>
+    <t>2023-08-01 14:00:03</t>
+  </si>
+  <si>
+    <t>2023-08-01 17:00:04</t>
+  </si>
+  <si>
+    <t>2023-08-01 19:00:05</t>
+  </si>
+  <si>
+    <t>2023-08-01 21:00:03</t>
+  </si>
+  <si>
+    <t>2023-08-02 00:00:02</t>
+  </si>
+  <si>
+    <t>2023-08-02 02:00:05</t>
+  </si>
+  <si>
+    <t>2023-08-02 04:00:04</t>
+  </si>
+  <si>
+    <t>2023-08-02 08:00:04</t>
+  </si>
+  <si>
+    <t>2023-08-02 11:00:04</t>
+  </si>
+  <si>
+    <t>2023-08-02 13:00:03</t>
+  </si>
+  <si>
+    <t>2023-08-02 16:00:05</t>
+  </si>
+  <si>
+    <t>2023-08-02 18:00:03</t>
+  </si>
+  <si>
+    <t>19.5</t>
+  </si>
+  <si>
+    <t>2023-08-02 20:00:03</t>
+  </si>
+  <si>
+    <t>2023-08-02 22:00:03</t>
+  </si>
+  <si>
+    <t>2023-08-03 00:00:03</t>
+  </si>
+  <si>
+    <t>2023-08-03 02:00:02</t>
+  </si>
+  <si>
+    <t>2023-08-03 04:00:03</t>
+  </si>
+  <si>
+    <t>2023-08-03 07:00:04</t>
+  </si>
+  <si>
+    <t>2023-08-03 09:00:06</t>
+  </si>
+  <si>
+    <t>2023-08-03 11:00:04</t>
+  </si>
+  <si>
+    <t>2023-08-03 13:00:04</t>
+  </si>
+  <si>
+    <t>2023-08-03 15:00:02</t>
+  </si>
+  <si>
+    <t>2023-08-03 17:00:04</t>
+  </si>
+  <si>
+    <t>39.239999999999995</t>
+  </si>
+  <si>
+    <t>2023-08-03 20:00:03</t>
+  </si>
+  <si>
+    <t>2023-08-03 22:00:03</t>
+  </si>
+  <si>
+    <t>2023-08-04 00:00:04</t>
+  </si>
+  <si>
+    <t>17.959999999999994</t>
+  </si>
+  <si>
+    <t>2023-08-04 02:00:05</t>
+  </si>
+  <si>
+    <t>2023-08-04 04:00:03</t>
+  </si>
+  <si>
+    <t>19.549999999999997</t>
+  </si>
+  <si>
+    <t>2023-08-04 07:00:02</t>
+  </si>
+  <si>
+    <t>2023-08-04 09:00:02</t>
+  </si>
+  <si>
+    <t>42.540000000000006</t>
+  </si>
+  <si>
+    <t>2023-08-04 11:00:04</t>
+  </si>
+  <si>
+    <t>41.239999999999995</t>
+  </si>
+  <si>
+    <t>2023-08-04 14:00:33</t>
+  </si>
+  <si>
+    <t>2023-08-04 16:00:02</t>
+  </si>
+  <si>
+    <t>2023-08-04 19:00:03</t>
+  </si>
+  <si>
+    <t>39.13</t>
+  </si>
+  <si>
+    <t>2023-08-04 22:00:03</t>
+  </si>
+  <si>
+    <t>2023-08-05 00:00:03</t>
+  </si>
+  <si>
+    <t>2023-08-05 02:00:04</t>
+  </si>
+  <si>
+    <t>2023-08-05 05:00:03</t>
+  </si>
+  <si>
+    <t>2023-08-05 08:00:04</t>
+  </si>
+  <si>
+    <t>2023-08-05 10:00:04</t>
+  </si>
+  <si>
+    <t>2023-08-05 13:00:03</t>
+  </si>
+  <si>
+    <t>2023-08-05 16:00:03</t>
+  </si>
+  <si>
+    <t>42.44</t>
+  </si>
+  <si>
+    <t>2023-08-05 19:00:05</t>
+  </si>
+  <si>
+    <t>2023-08-05 22:00:02</t>
+  </si>
+  <si>
+    <t>2023-08-06 00:00:04</t>
+  </si>
+  <si>
+    <t>2023-08-06 02:00:05</t>
+  </si>
+  <si>
+    <t>2023-08-06 04:00:04</t>
+  </si>
+  <si>
+    <t>2023-08-06 07:00:04</t>
+  </si>
+  <si>
+    <t>2023-08-06 09:00:05</t>
+  </si>
+  <si>
+    <t>2023-08-06 11:00:02</t>
+  </si>
+  <si>
+    <t>2023-08-06 14:00:05</t>
+  </si>
+  <si>
+    <t>39.31</t>
+  </si>
+  <si>
+    <t>2023-08-06 16:00:02</t>
+  </si>
+  <si>
+    <t>46.44</t>
+  </si>
+  <si>
+    <t>2023-08-06 18:00:04</t>
+  </si>
+  <si>
+    <t>30.519999999999996</t>
+  </si>
+  <si>
+    <t>2023-08-06 20:00:03</t>
+  </si>
+  <si>
+    <t>41.75</t>
+  </si>
+  <si>
+    <t>20.409999999999997</t>
+  </si>
+  <si>
+    <t>2023-08-06 22:00:04</t>
+  </si>
+  <si>
+    <t>16.08</t>
+  </si>
+  <si>
+    <t>2023-08-07 00:00:04</t>
+  </si>
+  <si>
+    <t>2023-08-07 03:00:04</t>
+  </si>
+  <si>
+    <t>2023-08-07 05:00:04</t>
+  </si>
+  <si>
+    <t>2023-08-07 08:00:03</t>
+  </si>
+  <si>
+    <t>2023-08-07 10:00:04</t>
+  </si>
+  <si>
+    <t>2023-08-07 12:00:04</t>
+  </si>
+  <si>
+    <t>2023-08-07 14:00:04</t>
+  </si>
+  <si>
+    <t>39.44</t>
+  </si>
+  <si>
+    <t>40.63000000000001</t>
+  </si>
+  <si>
+    <t>2023-08-07 16:00:04</t>
+  </si>
+  <si>
+    <t>33.86999999999999</t>
+  </si>
+  <si>
+    <t>2023-08-07 18:00:02</t>
+  </si>
+  <si>
+    <t>2023-08-07 20:00:04</t>
+  </si>
+  <si>
+    <t>2023-08-07 22:00:05</t>
+  </si>
+  <si>
+    <t>17.28</t>
+  </si>
+  <si>
+    <t>2023-08-08 00:00:04</t>
+  </si>
+  <si>
+    <t>2023-08-08 02:00:03</t>
+  </si>
+  <si>
+    <t>2023-08-08 04:00:05</t>
+  </si>
+  <si>
+    <t>2023-08-08 07:00:05</t>
+  </si>
+  <si>
+    <t>2023-08-08 09:00:04</t>
+  </si>
+  <si>
+    <t>2023-08-08 11:00:03</t>
+  </si>
+  <si>
+    <t>2023-08-08 14:00:03</t>
+  </si>
+  <si>
+    <t>40.60000000000001</t>
+  </si>
+  <si>
+    <t>2023-08-08 17:00:04</t>
+  </si>
+  <si>
+    <t>2023-08-08 19:00:03</t>
+  </si>
+  <si>
+    <t>40.06</t>
+  </si>
+  <si>
+    <t>18.5</t>
+  </si>
+  <si>
+    <t>2023-08-08 21:00:05</t>
+  </si>
+  <si>
+    <t>2023-08-08 23:00:04</t>
   </si>
 </sst>
 </file>
@@ -19544,7 +21113,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D4178"/>
+  <dimension ref="A1:D4600"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -78042,6 +79611,5914 @@
         <v>810</v>
       </c>
     </row>
+    <row r="4179">
+      <c r="A4179" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4179" t="s">
+        <v>6496</v>
+      </c>
+      <c r="C4179" t="s">
+        <v>926</v>
+      </c>
+      <c r="D4179" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="4180">
+      <c r="A4180" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4180" t="s">
+        <v>6497</v>
+      </c>
+      <c r="C4180" t="s">
+        <v>1217</v>
+      </c>
+      <c r="D4180" t="s">
+        <v>2870</v>
+      </c>
+    </row>
+    <row r="4181">
+      <c r="A4181" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4181" t="s">
+        <v>6498</v>
+      </c>
+      <c r="C4181" t="s">
+        <v>1396</v>
+      </c>
+      <c r="D4181" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="4182">
+      <c r="A4182" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4182" t="s">
+        <v>6499</v>
+      </c>
+      <c r="C4182" t="s">
+        <v>882</v>
+      </c>
+      <c r="D4182" t="s">
+        <v>3811</v>
+      </c>
+    </row>
+    <row r="4183">
+      <c r="A4183" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4183" t="s">
+        <v>6500</v>
+      </c>
+      <c r="C4183" t="s">
+        <v>780</v>
+      </c>
+      <c r="D4183" t="s">
+        <v>2870</v>
+      </c>
+    </row>
+    <row r="4184">
+      <c r="A4184" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4184" t="s">
+        <v>6501</v>
+      </c>
+      <c r="C4184" t="s">
+        <v>822</v>
+      </c>
+      <c r="D4184" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="4185">
+      <c r="A4185" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4185" t="s">
+        <v>6502</v>
+      </c>
+      <c r="C4185" t="s">
+        <v>762</v>
+      </c>
+      <c r="D4185" t="s">
+        <v>3811</v>
+      </c>
+    </row>
+    <row r="4186">
+      <c r="A4186" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4186" t="s">
+        <v>6503</v>
+      </c>
+      <c r="C4186" t="s">
+        <v>816</v>
+      </c>
+      <c r="D4186" t="s">
+        <v>2121</v>
+      </c>
+    </row>
+    <row r="4187">
+      <c r="A4187" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4187" t="s">
+        <v>6504</v>
+      </c>
+      <c r="C4187" t="s">
+        <v>77</v>
+      </c>
+      <c r="D4187" t="s">
+        <v>1875</v>
+      </c>
+    </row>
+    <row r="4188">
+      <c r="A4188" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4188" t="s">
+        <v>6505</v>
+      </c>
+      <c r="C4188" t="s">
+        <v>335</v>
+      </c>
+      <c r="D4188" t="s">
+        <v>5130</v>
+      </c>
+    </row>
+    <row r="4189">
+      <c r="A4189" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4189" t="s">
+        <v>6506</v>
+      </c>
+      <c r="C4189" t="s">
+        <v>253</v>
+      </c>
+      <c r="D4189" t="s">
+        <v>2424</v>
+      </c>
+    </row>
+    <row r="4190">
+      <c r="A4190" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4190" t="s">
+        <v>6507</v>
+      </c>
+      <c r="C4190" t="s">
+        <v>86</v>
+      </c>
+      <c r="D4190" t="s">
+        <v>6508</v>
+      </c>
+    </row>
+    <row r="4191">
+      <c r="A4191" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4191" t="s">
+        <v>6509</v>
+      </c>
+      <c r="C4191" t="s">
+        <v>6510</v>
+      </c>
+      <c r="D4191" t="s">
+        <v>6511</v>
+      </c>
+    </row>
+    <row r="4192">
+      <c r="A4192" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4192" t="s">
+        <v>6512</v>
+      </c>
+      <c r="C4192" t="s">
+        <v>348</v>
+      </c>
+      <c r="D4192" t="s">
+        <v>4708</v>
+      </c>
+    </row>
+    <row r="4193">
+      <c r="A4193" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4193" t="s">
+        <v>6513</v>
+      </c>
+      <c r="C4193" t="s">
+        <v>184</v>
+      </c>
+      <c r="D4193" t="s">
+        <v>5074</v>
+      </c>
+    </row>
+    <row r="4194">
+      <c r="A4194" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4194" t="s">
+        <v>6514</v>
+      </c>
+      <c r="C4194" t="s">
+        <v>345</v>
+      </c>
+      <c r="D4194" t="s">
+        <v>1744</v>
+      </c>
+    </row>
+    <row r="4195">
+      <c r="A4195" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4195" t="s">
+        <v>6515</v>
+      </c>
+      <c r="C4195" t="s">
+        <v>374</v>
+      </c>
+      <c r="D4195" t="s">
+        <v>6516</v>
+      </c>
+    </row>
+    <row r="4196">
+      <c r="A4196" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4196" t="s">
+        <v>6517</v>
+      </c>
+      <c r="C4196" t="s">
+        <v>243</v>
+      </c>
+      <c r="D4196" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="4197">
+      <c r="A4197" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4197" t="s">
+        <v>6518</v>
+      </c>
+      <c r="C4197" t="s">
+        <v>496</v>
+      </c>
+      <c r="D4197" t="s">
+        <v>2089</v>
+      </c>
+    </row>
+    <row r="4198">
+      <c r="A4198" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4198" t="s">
+        <v>6519</v>
+      </c>
+      <c r="C4198" t="s">
+        <v>6322</v>
+      </c>
+      <c r="D4198" t="s">
+        <v>5440</v>
+      </c>
+    </row>
+    <row r="4199">
+      <c r="A4199" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4199" t="s">
+        <v>6520</v>
+      </c>
+      <c r="C4199" t="s">
+        <v>181</v>
+      </c>
+      <c r="D4199" t="s">
+        <v>2121</v>
+      </c>
+    </row>
+    <row r="4200">
+      <c r="A4200" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4200" t="s">
+        <v>6521</v>
+      </c>
+      <c r="C4200" t="s">
+        <v>209</v>
+      </c>
+      <c r="D4200" t="s">
+        <v>4934</v>
+      </c>
+    </row>
+    <row r="4201">
+      <c r="A4201" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4201" t="s">
+        <v>6522</v>
+      </c>
+      <c r="C4201" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4201" t="s">
+        <v>1875</v>
+      </c>
+    </row>
+    <row r="4202">
+      <c r="A4202" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4202" t="s">
+        <v>6523</v>
+      </c>
+      <c r="C4202" t="s">
+        <v>6524</v>
+      </c>
+      <c r="D4202" t="s">
+        <v>5265</v>
+      </c>
+    </row>
+    <row r="4203">
+      <c r="A4203" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4203" t="s">
+        <v>6525</v>
+      </c>
+      <c r="C4203" t="s">
+        <v>770</v>
+      </c>
+      <c r="D4203" t="s">
+        <v>2358</v>
+      </c>
+    </row>
+    <row r="4204">
+      <c r="A4204" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4204" t="s">
+        <v>6526</v>
+      </c>
+      <c r="C4204" t="s">
+        <v>721</v>
+      </c>
+      <c r="D4204" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="4205">
+      <c r="A4205" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4205" t="s">
+        <v>6527</v>
+      </c>
+      <c r="C4205" t="s">
+        <v>1203</v>
+      </c>
+      <c r="D4205" t="s">
+        <v>2089</v>
+      </c>
+    </row>
+    <row r="4206">
+      <c r="A4206" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4206" t="s">
+        <v>6528</v>
+      </c>
+      <c r="C4206" t="s">
+        <v>6456</v>
+      </c>
+      <c r="D4206" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="4207">
+      <c r="A4207" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4207" t="s">
+        <v>6529</v>
+      </c>
+      <c r="C4207" t="s">
+        <v>440</v>
+      </c>
+      <c r="D4207" t="s">
+        <v>1346</v>
+      </c>
+    </row>
+    <row r="4208">
+      <c r="A4208" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4208" t="s">
+        <v>6530</v>
+      </c>
+      <c r="C4208" t="s">
+        <v>51</v>
+      </c>
+      <c r="D4208" t="s">
+        <v>6531</v>
+      </c>
+    </row>
+    <row r="4209">
+      <c r="A4209" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4209" t="s">
+        <v>6532</v>
+      </c>
+      <c r="C4209" t="s">
+        <v>348</v>
+      </c>
+      <c r="D4209" t="s">
+        <v>4340</v>
+      </c>
+    </row>
+    <row r="4210">
+      <c r="A4210" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4210" t="s">
+        <v>6533</v>
+      </c>
+      <c r="C4210" t="s">
+        <v>446</v>
+      </c>
+      <c r="D4210" t="s">
+        <v>2615</v>
+      </c>
+    </row>
+    <row r="4211">
+      <c r="A4211" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4211" t="s">
+        <v>6534</v>
+      </c>
+      <c r="C4211" t="s">
+        <v>5947</v>
+      </c>
+      <c r="D4211" t="s">
+        <v>1184</v>
+      </c>
+    </row>
+    <row r="4212">
+      <c r="A4212" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4212" t="s">
+        <v>6535</v>
+      </c>
+      <c r="C4212" t="s">
+        <v>406</v>
+      </c>
+      <c r="D4212" t="s">
+        <v>2440</v>
+      </c>
+    </row>
+    <row r="4213">
+      <c r="A4213" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4213" t="s">
+        <v>6536</v>
+      </c>
+      <c r="C4213" t="s">
+        <v>371</v>
+      </c>
+      <c r="D4213" t="s">
+        <v>1878</v>
+      </c>
+    </row>
+    <row r="4214">
+      <c r="A4214" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4214" t="s">
+        <v>6537</v>
+      </c>
+      <c r="C4214" t="s">
+        <v>403</v>
+      </c>
+      <c r="D4214" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="4215">
+      <c r="A4215" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4215" t="s">
+        <v>6538</v>
+      </c>
+      <c r="C4215" t="s">
+        <v>6524</v>
+      </c>
+      <c r="D4215" t="s">
+        <v>4065</v>
+      </c>
+    </row>
+    <row r="4216">
+      <c r="A4216" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4216" t="s">
+        <v>6539</v>
+      </c>
+      <c r="C4216" t="s">
+        <v>1112</v>
+      </c>
+      <c r="D4216" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="4217">
+      <c r="A4217" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4217" t="s">
+        <v>6540</v>
+      </c>
+      <c r="C4217" t="s">
+        <v>1112</v>
+      </c>
+      <c r="D4217" t="s">
+        <v>4129</v>
+      </c>
+    </row>
+    <row r="4218">
+      <c r="A4218" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4218" t="s">
+        <v>6541</v>
+      </c>
+      <c r="C4218" t="s">
+        <v>936</v>
+      </c>
+      <c r="D4218" t="s">
+        <v>1509</v>
+      </c>
+    </row>
+    <row r="4219">
+      <c r="A4219" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4219" t="s">
+        <v>6542</v>
+      </c>
+      <c r="C4219" t="s">
+        <v>1787</v>
+      </c>
+      <c r="D4219" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="4220">
+      <c r="A4220" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4220" t="s">
+        <v>6543</v>
+      </c>
+      <c r="C4220" t="s">
+        <v>1019</v>
+      </c>
+      <c r="D4220" t="s">
+        <v>1621</v>
+      </c>
+    </row>
+    <row r="4221">
+      <c r="A4221" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4221" t="s">
+        <v>6544</v>
+      </c>
+      <c r="C4221" t="s">
+        <v>1566</v>
+      </c>
+      <c r="D4221" t="s">
+        <v>4623</v>
+      </c>
+    </row>
+    <row r="4222">
+      <c r="A4222" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4222" t="s">
+        <v>6545</v>
+      </c>
+      <c r="C4222" t="s">
+        <v>857</v>
+      </c>
+      <c r="D4222" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="4223">
+      <c r="A4223" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4223" t="s">
+        <v>6546</v>
+      </c>
+      <c r="C4223" t="s">
+        <v>209</v>
+      </c>
+      <c r="D4223" t="s">
+        <v>5440</v>
+      </c>
+    </row>
+    <row r="4224">
+      <c r="A4224" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4224" t="s">
+        <v>6547</v>
+      </c>
+      <c r="C4224" t="s">
+        <v>329</v>
+      </c>
+      <c r="D4224" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="4225">
+      <c r="A4225" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4225" t="s">
+        <v>6548</v>
+      </c>
+      <c r="C4225" t="s">
+        <v>117</v>
+      </c>
+      <c r="D4225" t="s">
+        <v>4368</v>
+      </c>
+    </row>
+    <row r="4226">
+      <c r="A4226" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4226" t="s">
+        <v>6549</v>
+      </c>
+      <c r="C4226" t="s">
+        <v>5443</v>
+      </c>
+      <c r="D4226" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="4227">
+      <c r="A4227" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4227" t="s">
+        <v>6550</v>
+      </c>
+      <c r="C4227" t="s">
+        <v>6551</v>
+      </c>
+      <c r="D4227" t="s">
+        <v>6194</v>
+      </c>
+    </row>
+    <row r="4228">
+      <c r="A4228" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4228" t="s">
+        <v>6552</v>
+      </c>
+      <c r="C4228" t="s">
+        <v>6091</v>
+      </c>
+      <c r="D4228" t="s">
+        <v>6553</v>
+      </c>
+    </row>
+    <row r="4229">
+      <c r="A4229" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4229" t="s">
+        <v>6554</v>
+      </c>
+      <c r="C4229" t="s">
+        <v>419</v>
+      </c>
+      <c r="D4229" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="4230">
+      <c r="A4230" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4230" t="s">
+        <v>6555</v>
+      </c>
+      <c r="C4230" t="s">
+        <v>89</v>
+      </c>
+      <c r="D4230" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="4231">
+      <c r="A4231" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4231" t="s">
+        <v>6556</v>
+      </c>
+      <c r="C4231" t="s">
+        <v>6557</v>
+      </c>
+      <c r="D4231" t="s">
+        <v>6558</v>
+      </c>
+    </row>
+    <row r="4232">
+      <c r="A4232" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4232" t="s">
+        <v>6559</v>
+      </c>
+      <c r="C4232" t="s">
+        <v>503</v>
+      </c>
+      <c r="D4232" t="s">
+        <v>6560</v>
+      </c>
+    </row>
+    <row r="4233">
+      <c r="A4233" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4233" t="s">
+        <v>6561</v>
+      </c>
+      <c r="C4233" t="s">
+        <v>300</v>
+      </c>
+      <c r="D4233" t="s">
+        <v>1367</v>
+      </c>
+    </row>
+    <row r="4234">
+      <c r="A4234" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4234" t="s">
+        <v>6562</v>
+      </c>
+      <c r="C4234" t="s">
+        <v>234</v>
+      </c>
+      <c r="D4234" t="s">
+        <v>4591</v>
+      </c>
+    </row>
+    <row r="4235">
+      <c r="A4235" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4235" t="s">
+        <v>6563</v>
+      </c>
+      <c r="C4235" t="s">
+        <v>601</v>
+      </c>
+      <c r="D4235" t="s">
+        <v>2440</v>
+      </c>
+    </row>
+    <row r="4236">
+      <c r="A4236" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4236" t="s">
+        <v>6564</v>
+      </c>
+      <c r="C4236" t="s">
+        <v>74</v>
+      </c>
+      <c r="D4236" t="s">
+        <v>2416</v>
+      </c>
+    </row>
+    <row r="4237">
+      <c r="A4237" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4237" t="s">
+        <v>6565</v>
+      </c>
+      <c r="C4237" t="s">
+        <v>869</v>
+      </c>
+      <c r="D4237" t="s">
+        <v>5659</v>
+      </c>
+    </row>
+    <row r="4238">
+      <c r="A4238" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4238" t="s">
+        <v>6566</v>
+      </c>
+      <c r="C4238" t="s">
+        <v>181</v>
+      </c>
+      <c r="D4238" t="s">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="4239">
+      <c r="A4239" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4239" t="s">
+        <v>6567</v>
+      </c>
+      <c r="C4239" t="s">
+        <v>491</v>
+      </c>
+      <c r="D4239" t="s">
+        <v>5130</v>
+      </c>
+    </row>
+    <row r="4240">
+      <c r="A4240" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4240" t="s">
+        <v>6568</v>
+      </c>
+      <c r="C4240" t="s">
+        <v>491</v>
+      </c>
+      <c r="D4240" t="s">
+        <v>5147</v>
+      </c>
+    </row>
+    <row r="4241">
+      <c r="A4241" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4241" t="s">
+        <v>6569</v>
+      </c>
+      <c r="C4241" t="s">
+        <v>345</v>
+      </c>
+      <c r="D4241" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="4242">
+      <c r="A4242" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4242" t="s">
+        <v>6570</v>
+      </c>
+      <c r="C4242" t="s">
+        <v>1131</v>
+      </c>
+      <c r="D4242" t="s">
+        <v>1599</v>
+      </c>
+    </row>
+    <row r="4243">
+      <c r="A4243" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4243" t="s">
+        <v>6571</v>
+      </c>
+      <c r="C4243" t="s">
+        <v>6572</v>
+      </c>
+      <c r="D4243" t="s">
+        <v>1552</v>
+      </c>
+    </row>
+    <row r="4244">
+      <c r="A4244" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4244" t="s">
+        <v>6573</v>
+      </c>
+      <c r="C4244" t="s">
+        <v>6470</v>
+      </c>
+      <c r="D4244" t="s">
+        <v>2663</v>
+      </c>
+    </row>
+    <row r="4245">
+      <c r="A4245" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4245" t="s">
+        <v>6574</v>
+      </c>
+      <c r="C4245" t="s">
+        <v>6575</v>
+      </c>
+      <c r="D4245" t="s">
+        <v>6576</v>
+      </c>
+    </row>
+    <row r="4246">
+      <c r="A4246" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4246" t="s">
+        <v>6577</v>
+      </c>
+      <c r="C4246" t="s">
+        <v>559</v>
+      </c>
+      <c r="D4246" t="s">
+        <v>6578</v>
+      </c>
+    </row>
+    <row r="4247">
+      <c r="A4247" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4247" t="s">
+        <v>6579</v>
+      </c>
+      <c r="C4247" t="s">
+        <v>156</v>
+      </c>
+      <c r="D4247" t="s">
+        <v>6580</v>
+      </c>
+    </row>
+    <row r="4248">
+      <c r="A4248" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4248" t="s">
+        <v>6581</v>
+      </c>
+      <c r="C4248" t="s">
+        <v>1364</v>
+      </c>
+      <c r="D4248" t="s">
+        <v>2492</v>
+      </c>
+    </row>
+    <row r="4249">
+      <c r="A4249" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4249" t="s">
+        <v>6582</v>
+      </c>
+      <c r="C4249" t="s">
+        <v>377</v>
+      </c>
+      <c r="D4249" t="s">
+        <v>6583</v>
+      </c>
+    </row>
+    <row r="4250">
+      <c r="A4250" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4250" t="s">
+        <v>6584</v>
+      </c>
+      <c r="C4250" t="s">
+        <v>2760</v>
+      </c>
+      <c r="D4250" t="s">
+        <v>6585</v>
+      </c>
+    </row>
+    <row r="4251">
+      <c r="A4251" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4251" t="s">
+        <v>6586</v>
+      </c>
+      <c r="C4251" t="s">
+        <v>111</v>
+      </c>
+      <c r="D4251" t="s">
+        <v>5268</v>
+      </c>
+    </row>
+    <row r="4252">
+      <c r="A4252" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4252" t="s">
+        <v>6587</v>
+      </c>
+      <c r="C4252" t="s">
+        <v>403</v>
+      </c>
+      <c r="D4252" t="s">
+        <v>3825</v>
+      </c>
+    </row>
+    <row r="4253">
+      <c r="A4253" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4253" t="s">
+        <v>6588</v>
+      </c>
+      <c r="C4253" t="s">
+        <v>276</v>
+      </c>
+      <c r="D4253" t="s">
+        <v>5941</v>
+      </c>
+    </row>
+    <row r="4254">
+      <c r="A4254" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4254" t="s">
+        <v>6589</v>
+      </c>
+      <c r="C4254" t="s">
+        <v>730</v>
+      </c>
+      <c r="D4254" t="s">
+        <v>1097</v>
+      </c>
+    </row>
+    <row r="4255">
+      <c r="A4255" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4255" t="s">
+        <v>6590</v>
+      </c>
+      <c r="C4255" t="s">
+        <v>730</v>
+      </c>
+      <c r="D4255" t="s">
+        <v>2358</v>
+      </c>
+    </row>
+    <row r="4256">
+      <c r="A4256" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4256" t="s">
+        <v>6591</v>
+      </c>
+      <c r="C4256" t="s">
+        <v>1443</v>
+      </c>
+      <c r="D4256" t="s">
+        <v>2338</v>
+      </c>
+    </row>
+    <row r="4257">
+      <c r="A4257" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4257" t="s">
+        <v>6592</v>
+      </c>
+      <c r="C4257" t="s">
+        <v>958</v>
+      </c>
+      <c r="D4257" t="s">
+        <v>2123</v>
+      </c>
+    </row>
+    <row r="4258">
+      <c r="A4258" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4258" t="s">
+        <v>6593</v>
+      </c>
+      <c r="C4258" t="s">
+        <v>825</v>
+      </c>
+      <c r="D4258" t="s">
+        <v>1583</v>
+      </c>
+    </row>
+    <row r="4259">
+      <c r="A4259" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4259" t="s">
+        <v>6594</v>
+      </c>
+      <c r="C4259" t="s">
+        <v>803</v>
+      </c>
+      <c r="D4259" t="s">
+        <v>1573</v>
+      </c>
+    </row>
+    <row r="4260">
+      <c r="A4260" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4260" t="s">
+        <v>6595</v>
+      </c>
+      <c r="C4260" t="s">
+        <v>701</v>
+      </c>
+      <c r="D4260" t="s">
+        <v>1586</v>
+      </c>
+    </row>
+    <row r="4261">
+      <c r="A4261" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4261" t="s">
+        <v>6596</v>
+      </c>
+      <c r="C4261" t="s">
+        <v>204</v>
+      </c>
+      <c r="D4261" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="4262">
+      <c r="A4262" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4262" t="s">
+        <v>6597</v>
+      </c>
+      <c r="C4262" t="s">
+        <v>1203</v>
+      </c>
+      <c r="D4262" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="4263">
+      <c r="A4263" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4263" t="s">
+        <v>6598</v>
+      </c>
+      <c r="C4263" t="s">
+        <v>181</v>
+      </c>
+      <c r="D4263" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="4264">
+      <c r="A4264" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4264" t="s">
+        <v>6599</v>
+      </c>
+      <c r="C4264" t="s">
+        <v>181</v>
+      </c>
+      <c r="D4264" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="4265">
+      <c r="A4265" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4265" t="s">
+        <v>6600</v>
+      </c>
+      <c r="C4265" t="s">
+        <v>770</v>
+      </c>
+      <c r="D4265" t="s">
+        <v>5021</v>
+      </c>
+    </row>
+    <row r="4266">
+      <c r="A4266" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4266" t="s">
+        <v>6601</v>
+      </c>
+      <c r="C4266" t="s">
+        <v>724</v>
+      </c>
+      <c r="D4266" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="4267">
+      <c r="A4267" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4267" t="s">
+        <v>6602</v>
+      </c>
+      <c r="C4267" t="s">
+        <v>733</v>
+      </c>
+      <c r="D4267" t="s">
+        <v>1875</v>
+      </c>
+    </row>
+    <row r="4268">
+      <c r="A4268" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4268" t="s">
+        <v>6603</v>
+      </c>
+      <c r="C4268" t="s">
+        <v>1443</v>
+      </c>
+      <c r="D4268" t="s">
+        <v>2075</v>
+      </c>
+    </row>
+    <row r="4269">
+      <c r="A4269" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4269" t="s">
+        <v>6604</v>
+      </c>
+      <c r="C4269" t="s">
+        <v>724</v>
+      </c>
+      <c r="D4269" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="4270">
+      <c r="A4270" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4270" t="s">
+        <v>6605</v>
+      </c>
+      <c r="C4270" t="s">
+        <v>899</v>
+      </c>
+      <c r="D4270" t="s">
+        <v>4048</v>
+      </c>
+    </row>
+    <row r="4271">
+      <c r="A4271" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4271" t="s">
+        <v>6606</v>
+      </c>
+      <c r="C4271" t="s">
+        <v>1112</v>
+      </c>
+      <c r="D4271" t="s">
+        <v>1762</v>
+      </c>
+    </row>
+    <row r="4272">
+      <c r="A4272" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4272" t="s">
+        <v>6607</v>
+      </c>
+      <c r="C4272" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4272" t="s">
+        <v>1769</v>
+      </c>
+    </row>
+    <row r="4273">
+      <c r="A4273" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4273" t="s">
+        <v>6608</v>
+      </c>
+      <c r="C4273" t="s">
+        <v>74</v>
+      </c>
+      <c r="D4273" t="s">
+        <v>1385</v>
+      </c>
+    </row>
+    <row r="4274">
+      <c r="A4274" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4274" t="s">
+        <v>6609</v>
+      </c>
+      <c r="C4274" t="s">
+        <v>332</v>
+      </c>
+      <c r="D4274" t="s">
+        <v>6610</v>
+      </c>
+    </row>
+    <row r="4275">
+      <c r="A4275" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4275" t="s">
+        <v>6611</v>
+      </c>
+      <c r="C4275" t="s">
+        <v>457</v>
+      </c>
+      <c r="D4275" t="s">
+        <v>6612</v>
+      </c>
+    </row>
+    <row r="4276">
+      <c r="A4276" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4276" t="s">
+        <v>6613</v>
+      </c>
+      <c r="C4276" t="s">
+        <v>6614</v>
+      </c>
+      <c r="D4276" t="s">
+        <v>2399</v>
+      </c>
+    </row>
+    <row r="4277">
+      <c r="A4277" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4277" t="s">
+        <v>6615</v>
+      </c>
+      <c r="C4277" t="s">
+        <v>6614</v>
+      </c>
+      <c r="D4277" t="s">
+        <v>2671</v>
+      </c>
+    </row>
+    <row r="4278">
+      <c r="A4278" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4278" t="s">
+        <v>6616</v>
+      </c>
+      <c r="C4278" t="s">
+        <v>226</v>
+      </c>
+      <c r="D4278" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="4279">
+      <c r="A4279" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4279" t="s">
+        <v>6617</v>
+      </c>
+      <c r="C4279" t="s">
+        <v>351</v>
+      </c>
+      <c r="D4279" t="s">
+        <v>6618</v>
+      </c>
+    </row>
+    <row r="4280">
+      <c r="A4280" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4280" t="s">
+        <v>6619</v>
+      </c>
+      <c r="C4280" t="s">
+        <v>351</v>
+      </c>
+      <c r="D4280" t="s">
+        <v>6620</v>
+      </c>
+    </row>
+    <row r="4281">
+      <c r="A4281" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4281" t="s">
+        <v>6621</v>
+      </c>
+      <c r="C4281" t="s">
+        <v>433</v>
+      </c>
+      <c r="D4281" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="4282">
+      <c r="A4282" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4282" t="s">
+        <v>6622</v>
+      </c>
+      <c r="C4282" t="s">
+        <v>335</v>
+      </c>
+      <c r="D4282" t="s">
+        <v>1228</v>
+      </c>
+    </row>
+    <row r="4283">
+      <c r="A4283" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4283" t="s">
+        <v>6623</v>
+      </c>
+      <c r="C4283" t="s">
+        <v>77</v>
+      </c>
+      <c r="D4283" t="s">
+        <v>1062</v>
+      </c>
+    </row>
+    <row r="4284">
+      <c r="A4284" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4284" t="s">
+        <v>6624</v>
+      </c>
+      <c r="C4284" t="s">
+        <v>691</v>
+      </c>
+      <c r="D4284" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="4285">
+      <c r="A4285" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4285" t="s">
+        <v>6625</v>
+      </c>
+      <c r="C4285" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4285" t="s">
+        <v>1895</v>
+      </c>
+    </row>
+    <row r="4286">
+      <c r="A4286" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4286" t="s">
+        <v>6626</v>
+      </c>
+      <c r="C4286" t="s">
+        <v>596</v>
+      </c>
+      <c r="D4286" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="4287">
+      <c r="A4287" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4287" t="s">
+        <v>6627</v>
+      </c>
+      <c r="C4287" t="s">
+        <v>6628</v>
+      </c>
+      <c r="D4287" t="s">
+        <v>5979</v>
+      </c>
+    </row>
+    <row r="4288">
+      <c r="A4288" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4288" t="s">
+        <v>6629</v>
+      </c>
+      <c r="C4288" t="s">
+        <v>6630</v>
+      </c>
+      <c r="D4288" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="4289">
+      <c r="A4289" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4289" t="s">
+        <v>6631</v>
+      </c>
+      <c r="C4289" t="s">
+        <v>279</v>
+      </c>
+      <c r="D4289" t="s">
+        <v>2260</v>
+      </c>
+    </row>
+    <row r="4290">
+      <c r="A4290" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4290" t="s">
+        <v>6632</v>
+      </c>
+      <c r="C4290" t="s">
+        <v>201</v>
+      </c>
+      <c r="D4290" t="s">
+        <v>2416</v>
+      </c>
+    </row>
+    <row r="4291">
+      <c r="A4291" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4291" t="s">
+        <v>6633</v>
+      </c>
+      <c r="C4291" t="s">
+        <v>1110</v>
+      </c>
+      <c r="D4291" t="s">
+        <v>4663</v>
+      </c>
+    </row>
+    <row r="4292">
+      <c r="A4292" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4292" t="s">
+        <v>6634</v>
+      </c>
+      <c r="C4292" t="s">
+        <v>326</v>
+      </c>
+      <c r="D4292" t="s">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="4293">
+      <c r="A4293" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4293" t="s">
+        <v>6635</v>
+      </c>
+      <c r="C4293" t="s">
+        <v>601</v>
+      </c>
+      <c r="D4293" t="s">
+        <v>5863</v>
+      </c>
+    </row>
+    <row r="4294">
+      <c r="A4294" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4294" t="s">
+        <v>6636</v>
+      </c>
+      <c r="C4294" t="s">
+        <v>6153</v>
+      </c>
+      <c r="D4294" t="s">
+        <v>3108</v>
+      </c>
+    </row>
+    <row r="4295">
+      <c r="A4295" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4295" t="s">
+        <v>6637</v>
+      </c>
+      <c r="C4295" t="s">
+        <v>1105</v>
+      </c>
+      <c r="D4295" t="s">
+        <v>6638</v>
+      </c>
+    </row>
+    <row r="4296">
+      <c r="A4296" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4296" t="s">
+        <v>6639</v>
+      </c>
+      <c r="C4296" t="s">
+        <v>6640</v>
+      </c>
+      <c r="D4296" t="s">
+        <v>6641</v>
+      </c>
+    </row>
+    <row r="4297">
+      <c r="A4297" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4297" t="s">
+        <v>6642</v>
+      </c>
+      <c r="C4297" t="s">
+        <v>6643</v>
+      </c>
+      <c r="D4297" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="4298">
+      <c r="A4298" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4298" t="s">
+        <v>6644</v>
+      </c>
+      <c r="C4298" t="s">
+        <v>406</v>
+      </c>
+      <c r="D4298" t="s">
+        <v>3798</v>
+      </c>
+    </row>
+    <row r="4299">
+      <c r="A4299" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4299" t="s">
+        <v>6645</v>
+      </c>
+      <c r="C4299" t="s">
+        <v>48</v>
+      </c>
+      <c r="D4299" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="4300">
+      <c r="A4300" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4300" t="s">
+        <v>6646</v>
+      </c>
+      <c r="C4300" t="s">
+        <v>568</v>
+      </c>
+      <c r="D4300" t="s">
+        <v>5904</v>
+      </c>
+    </row>
+    <row r="4301">
+      <c r="A4301" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4301" t="s">
+        <v>6647</v>
+      </c>
+      <c r="C4301" t="s">
+        <v>1446</v>
+      </c>
+      <c r="D4301" t="s">
+        <v>6073</v>
+      </c>
+    </row>
+    <row r="4302">
+      <c r="A4302" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4302" t="s">
+        <v>6648</v>
+      </c>
+      <c r="C4302" t="s">
+        <v>457</v>
+      </c>
+      <c r="D4302" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="4303">
+      <c r="A4303" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4303" t="s">
+        <v>6649</v>
+      </c>
+      <c r="C4303" t="s">
+        <v>361</v>
+      </c>
+      <c r="D4303" t="s">
+        <v>1548</v>
+      </c>
+    </row>
+    <row r="4304">
+      <c r="A4304" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4304" t="s">
+        <v>6650</v>
+      </c>
+      <c r="C4304" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4304" t="s">
+        <v>3593</v>
+      </c>
+    </row>
+    <row r="4305">
+      <c r="A4305" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4305" t="s">
+        <v>6651</v>
+      </c>
+      <c r="C4305" t="s">
+        <v>1445</v>
+      </c>
+      <c r="D4305" t="s">
+        <v>1818</v>
+      </c>
+    </row>
+    <row r="4306">
+      <c r="A4306" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4306" t="s">
+        <v>6652</v>
+      </c>
+      <c r="C4306" t="s">
+        <v>1358</v>
+      </c>
+      <c r="D4306" t="s">
+        <v>4833</v>
+      </c>
+    </row>
+    <row r="4307">
+      <c r="A4307" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4307" t="s">
+        <v>6653</v>
+      </c>
+      <c r="C4307" t="s">
+        <v>338</v>
+      </c>
+      <c r="D4307" t="s">
+        <v>4647</v>
+      </c>
+    </row>
+    <row r="4308">
+      <c r="A4308" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4308" t="s">
+        <v>6654</v>
+      </c>
+      <c r="C4308" t="s">
+        <v>150</v>
+      </c>
+      <c r="D4308" t="s">
+        <v>1875</v>
+      </c>
+    </row>
+    <row r="4309">
+      <c r="A4309" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4309" t="s">
+        <v>6655</v>
+      </c>
+      <c r="C4309" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4309" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="4310">
+      <c r="A4310" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4310" t="s">
+        <v>6656</v>
+      </c>
+      <c r="C4310" t="s">
+        <v>6657</v>
+      </c>
+      <c r="D4310" t="s">
+        <v>6658</v>
+      </c>
+    </row>
+    <row r="4311">
+      <c r="A4311" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4311" t="s">
+        <v>6659</v>
+      </c>
+      <c r="C4311" t="s">
+        <v>443</v>
+      </c>
+      <c r="D4311" t="s">
+        <v>3115</v>
+      </c>
+    </row>
+    <row r="4312">
+      <c r="A4312" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4312" t="s">
+        <v>6660</v>
+      </c>
+      <c r="C4312" t="s">
+        <v>187</v>
+      </c>
+      <c r="D4312" t="s">
+        <v>6194</v>
+      </c>
+    </row>
+    <row r="4313">
+      <c r="A4313" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4313" t="s">
+        <v>6661</v>
+      </c>
+      <c r="C4313" t="s">
+        <v>5460</v>
+      </c>
+      <c r="D4313" t="s">
+        <v>1462</v>
+      </c>
+    </row>
+    <row r="4314">
+      <c r="A4314" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4314" t="s">
+        <v>6662</v>
+      </c>
+      <c r="C4314" t="s">
+        <v>608</v>
+      </c>
+      <c r="D4314" t="s">
+        <v>5183</v>
+      </c>
+    </row>
+    <row r="4315">
+      <c r="A4315" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4315" t="s">
+        <v>6663</v>
+      </c>
+      <c r="C4315" t="s">
+        <v>6396</v>
+      </c>
+      <c r="D4315" t="s">
+        <v>2397</v>
+      </c>
+    </row>
+    <row r="4316">
+      <c r="A4316" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4316" t="s">
+        <v>6664</v>
+      </c>
+      <c r="C4316" t="s">
+        <v>1635</v>
+      </c>
+      <c r="D4316" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="4317">
+      <c r="A4317" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4317" t="s">
+        <v>6665</v>
+      </c>
+      <c r="C4317" t="s">
+        <v>2249</v>
+      </c>
+      <c r="D4317" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="4318">
+      <c r="A4318" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4318" t="s">
+        <v>6666</v>
+      </c>
+      <c r="C4318" t="s">
+        <v>406</v>
+      </c>
+      <c r="D4318" t="s">
+        <v>1489</v>
+      </c>
+    </row>
+    <row r="4319">
+      <c r="A4319" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4319" t="s">
+        <v>6667</v>
+      </c>
+      <c r="C4319" t="s">
+        <v>619</v>
+      </c>
+      <c r="D4319" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="4320">
+      <c r="A4320" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4320" t="s">
+        <v>6668</v>
+      </c>
+      <c r="C4320" t="s">
+        <v>656</v>
+      </c>
+      <c r="D4320" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="4321">
+      <c r="A4321" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4321" t="s">
+        <v>6669</v>
+      </c>
+      <c r="C4321" t="s">
+        <v>6670</v>
+      </c>
+      <c r="D4321" t="s">
+        <v>6671</v>
+      </c>
+    </row>
+    <row r="4322">
+      <c r="A4322" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4322" t="s">
+        <v>6672</v>
+      </c>
+      <c r="C4322" t="s">
+        <v>198</v>
+      </c>
+      <c r="D4322" t="s">
+        <v>1197</v>
+      </c>
+    </row>
+    <row r="4323">
+      <c r="A4323" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4323" t="s">
+        <v>6673</v>
+      </c>
+      <c r="C4323" t="s">
+        <v>5713</v>
+      </c>
+      <c r="D4323" t="s">
+        <v>4721</v>
+      </c>
+    </row>
+    <row r="4324">
+      <c r="A4324" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4324" t="s">
+        <v>6674</v>
+      </c>
+      <c r="C4324" t="s">
+        <v>326</v>
+      </c>
+      <c r="D4324" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="4325">
+      <c r="A4325" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4325" t="s">
+        <v>6675</v>
+      </c>
+      <c r="C4325" t="s">
+        <v>276</v>
+      </c>
+      <c r="D4325" t="s">
+        <v>5663</v>
+      </c>
+    </row>
+    <row r="4326">
+      <c r="A4326" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4326" t="s">
+        <v>6676</v>
+      </c>
+      <c r="C4326" t="s">
+        <v>276</v>
+      </c>
+      <c r="D4326" t="s">
+        <v>3822</v>
+      </c>
+    </row>
+    <row r="4327">
+      <c r="A4327" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4327" t="s">
+        <v>6677</v>
+      </c>
+      <c r="C4327" t="s">
+        <v>117</v>
+      </c>
+      <c r="D4327" t="s">
+        <v>1294</v>
+      </c>
+    </row>
+    <row r="4328">
+      <c r="A4328" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4328" t="s">
+        <v>6678</v>
+      </c>
+      <c r="C4328" t="s">
+        <v>506</v>
+      </c>
+      <c r="D4328" t="s">
+        <v>6198</v>
+      </c>
+    </row>
+    <row r="4329">
+      <c r="A4329" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4329" t="s">
+        <v>6679</v>
+      </c>
+      <c r="C4329" t="s">
+        <v>627</v>
+      </c>
+      <c r="D4329" t="s">
+        <v>6680</v>
+      </c>
+    </row>
+    <row r="4330">
+      <c r="A4330" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4330" t="s">
+        <v>6681</v>
+      </c>
+      <c r="C4330" t="s">
+        <v>6682</v>
+      </c>
+      <c r="D4330" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="4331">
+      <c r="A4331" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4331" t="s">
+        <v>6683</v>
+      </c>
+      <c r="C4331" t="s">
+        <v>486</v>
+      </c>
+      <c r="D4331" t="s">
+        <v>1942</v>
+      </c>
+    </row>
+    <row r="4332">
+      <c r="A4332" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4332" t="s">
+        <v>6684</v>
+      </c>
+      <c r="C4332" t="s">
+        <v>684</v>
+      </c>
+      <c r="D4332" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="4333">
+      <c r="A4333" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4333" t="s">
+        <v>6685</v>
+      </c>
+      <c r="C4333" t="s">
+        <v>1445</v>
+      </c>
+      <c r="D4333" t="s">
+        <v>5268</v>
+      </c>
+    </row>
+    <row r="4334">
+      <c r="A4334" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4334" t="s">
+        <v>6686</v>
+      </c>
+      <c r="C4334" t="s">
+        <v>1110</v>
+      </c>
+      <c r="D4334" t="s">
+        <v>1138</v>
+      </c>
+    </row>
+    <row r="4335">
+      <c r="A4335" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4335" t="s">
+        <v>6687</v>
+      </c>
+      <c r="C4335" t="s">
+        <v>374</v>
+      </c>
+      <c r="D4335" t="s">
+        <v>1378</v>
+      </c>
+    </row>
+    <row r="4336">
+      <c r="A4336" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4336" t="s">
+        <v>6688</v>
+      </c>
+      <c r="C4336" t="s">
+        <v>237</v>
+      </c>
+      <c r="D4336" t="s">
+        <v>3617</v>
+      </c>
+    </row>
+    <row r="4337">
+      <c r="A4337" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4337" t="s">
+        <v>6689</v>
+      </c>
+      <c r="C4337" t="s">
+        <v>559</v>
+      </c>
+      <c r="D4337" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="4338">
+      <c r="A4338" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4338" t="s">
+        <v>6690</v>
+      </c>
+      <c r="C4338" t="s">
+        <v>483</v>
+      </c>
+      <c r="D4338" t="s">
+        <v>6691</v>
+      </c>
+    </row>
+    <row r="4339">
+      <c r="A4339" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4339" t="s">
+        <v>6692</v>
+      </c>
+      <c r="C4339" t="s">
+        <v>156</v>
+      </c>
+      <c r="D4339" t="s">
+        <v>4594</v>
+      </c>
+    </row>
+    <row r="4340">
+      <c r="A4340" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4340" t="s">
+        <v>6693</v>
+      </c>
+      <c r="C4340" t="s">
+        <v>6694</v>
+      </c>
+      <c r="D4340" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="4341">
+      <c r="A4341" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4341" t="s">
+        <v>6695</v>
+      </c>
+      <c r="C4341" t="s">
+        <v>105</v>
+      </c>
+      <c r="D4341" t="s">
+        <v>4870</v>
+      </c>
+    </row>
+    <row r="4342">
+      <c r="A4342" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4342" t="s">
+        <v>6696</v>
+      </c>
+      <c r="C4342" t="s">
+        <v>5713</v>
+      </c>
+      <c r="D4342" t="s">
+        <v>3751</v>
+      </c>
+    </row>
+    <row r="4343">
+      <c r="A4343" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4343" t="s">
+        <v>6697</v>
+      </c>
+      <c r="C4343" t="s">
+        <v>326</v>
+      </c>
+      <c r="D4343" t="s">
+        <v>6092</v>
+      </c>
+    </row>
+    <row r="4344">
+      <c r="A4344" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4344" t="s">
+        <v>6698</v>
+      </c>
+      <c r="C4344" t="s">
+        <v>276</v>
+      </c>
+      <c r="D4344" t="s">
+        <v>4851</v>
+      </c>
+    </row>
+    <row r="4345">
+      <c r="A4345" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4345" t="s">
+        <v>6699</v>
+      </c>
+      <c r="C4345" t="s">
+        <v>77</v>
+      </c>
+      <c r="D4345" t="s">
+        <v>1533</v>
+      </c>
+    </row>
+    <row r="4346">
+      <c r="A4346" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4346" t="s">
+        <v>6700</v>
+      </c>
+      <c r="C4346" t="s">
+        <v>345</v>
+      </c>
+      <c r="D4346" t="s">
+        <v>2617</v>
+      </c>
+    </row>
+    <row r="4347">
+      <c r="A4347" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4347" t="s">
+        <v>6701</v>
+      </c>
+      <c r="C4347" t="s">
+        <v>1210</v>
+      </c>
+      <c r="D4347" t="s">
+        <v>2671</v>
+      </c>
+    </row>
+    <row r="4348">
+      <c r="A4348" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4348" t="s">
+        <v>6702</v>
+      </c>
+      <c r="C4348" t="s">
+        <v>261</v>
+      </c>
+      <c r="D4348" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="4349">
+      <c r="A4349" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4349" t="s">
+        <v>6703</v>
+      </c>
+      <c r="C4349" t="s">
+        <v>1361</v>
+      </c>
+      <c r="D4349" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="4350">
+      <c r="A4350" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4350" t="s">
+        <v>6704</v>
+      </c>
+      <c r="C4350" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4350" t="s">
+        <v>1424</v>
+      </c>
+    </row>
+    <row r="4351">
+      <c r="A4351" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4351" t="s">
+        <v>6705</v>
+      </c>
+      <c r="C4351" t="s">
+        <v>571</v>
+      </c>
+      <c r="D4351" t="s">
+        <v>1552</v>
+      </c>
+    </row>
+    <row r="4352">
+      <c r="A4352" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4352" t="s">
+        <v>6706</v>
+      </c>
+      <c r="C4352" t="s">
+        <v>332</v>
+      </c>
+      <c r="D4352" t="s">
+        <v>4663</v>
+      </c>
+    </row>
+    <row r="4353">
+      <c r="A4353" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4353" t="s">
+        <v>6707</v>
+      </c>
+      <c r="C4353" t="s">
+        <v>6149</v>
+      </c>
+      <c r="D4353" t="s">
+        <v>2416</v>
+      </c>
+    </row>
+    <row r="4354">
+      <c r="A4354" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4354" t="s">
+        <v>6708</v>
+      </c>
+      <c r="C4354" t="s">
+        <v>341</v>
+      </c>
+      <c r="D4354" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="4355">
+      <c r="A4355" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4355" t="s">
+        <v>6709</v>
+      </c>
+      <c r="C4355" t="s">
+        <v>153</v>
+      </c>
+      <c r="D4355" t="s">
+        <v>2044</v>
+      </c>
+    </row>
+    <row r="4356">
+      <c r="A4356" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4356" t="s">
+        <v>6710</v>
+      </c>
+      <c r="C4356" t="s">
+        <v>86</v>
+      </c>
+      <c r="D4356" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="4357">
+      <c r="A4357" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4357" t="s">
+        <v>6711</v>
+      </c>
+      <c r="C4357" t="s">
+        <v>6712</v>
+      </c>
+      <c r="D4357" t="s">
+        <v>6713</v>
+      </c>
+    </row>
+    <row r="4358">
+      <c r="A4358" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4358" t="s">
+        <v>6714</v>
+      </c>
+      <c r="C4358" t="s">
+        <v>317</v>
+      </c>
+      <c r="D4358" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="4359">
+      <c r="A4359" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4359" t="s">
+        <v>6715</v>
+      </c>
+      <c r="C4359" t="s">
+        <v>341</v>
+      </c>
+      <c r="D4359" t="s">
+        <v>1129</v>
+      </c>
+    </row>
+    <row r="4360">
+      <c r="A4360" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4360" t="s">
+        <v>6716</v>
+      </c>
+      <c r="C4360" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4360" t="s">
+        <v>1818</v>
+      </c>
+    </row>
+    <row r="4361">
+      <c r="A4361" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4361" t="s">
+        <v>6717</v>
+      </c>
+      <c r="C4361" t="s">
+        <v>472</v>
+      </c>
+      <c r="D4361" t="s">
+        <v>4647</v>
+      </c>
+    </row>
+    <row r="4362">
+      <c r="A4362" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4362" t="s">
+        <v>6718</v>
+      </c>
+      <c r="C4362" t="s">
+        <v>1620</v>
+      </c>
+      <c r="D4362" t="s">
+        <v>2440</v>
+      </c>
+    </row>
+    <row r="4363">
+      <c r="A4363" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4363" t="s">
+        <v>6719</v>
+      </c>
+      <c r="C4363" t="s">
+        <v>721</v>
+      </c>
+      <c r="D4363" t="s">
+        <v>4571</v>
+      </c>
+    </row>
+    <row r="4364">
+      <c r="A4364" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4364" t="s">
+        <v>6720</v>
+      </c>
+      <c r="C4364" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4364" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="4365">
+      <c r="A4365" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4365" t="s">
+        <v>6721</v>
+      </c>
+      <c r="C4365" t="s">
+        <v>835</v>
+      </c>
+      <c r="D4365" t="s">
+        <v>1323</v>
+      </c>
+    </row>
+    <row r="4366">
+      <c r="A4366" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4366" t="s">
+        <v>6722</v>
+      </c>
+      <c r="C4366" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4366" t="s">
+        <v>5130</v>
+      </c>
+    </row>
+    <row r="4367">
+      <c r="A4367" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4367" t="s">
+        <v>6723</v>
+      </c>
+      <c r="C4367" t="s">
+        <v>117</v>
+      </c>
+      <c r="D4367" t="s">
+        <v>1513</v>
+      </c>
+    </row>
+    <row r="4368">
+      <c r="A4368" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4368" t="s">
+        <v>6724</v>
+      </c>
+      <c r="C4368" t="s">
+        <v>6725</v>
+      </c>
+      <c r="D4368" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="4369">
+      <c r="A4369" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4369" t="s">
+        <v>6726</v>
+      </c>
+      <c r="C4369" t="s">
+        <v>773</v>
+      </c>
+      <c r="D4369" t="s">
+        <v>2870</v>
+      </c>
+    </row>
+    <row r="4370">
+      <c r="A4370" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4370" t="s">
+        <v>6727</v>
+      </c>
+      <c r="C4370" t="s">
+        <v>147</v>
+      </c>
+      <c r="D4370" t="s">
+        <v>2358</v>
+      </c>
+    </row>
+    <row r="4371">
+      <c r="A4371" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4371" t="s">
+        <v>6728</v>
+      </c>
+      <c r="C4371" t="s">
+        <v>879</v>
+      </c>
+      <c r="D4371" t="s">
+        <v>1176</v>
+      </c>
+    </row>
+    <row r="4372">
+      <c r="A4372" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4372" t="s">
+        <v>6729</v>
+      </c>
+      <c r="C4372" t="s">
+        <v>1140</v>
+      </c>
+      <c r="D4372" t="s">
+        <v>2079</v>
+      </c>
+    </row>
+    <row r="4373">
+      <c r="A4373" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4373" t="s">
+        <v>6730</v>
+      </c>
+      <c r="C4373" t="s">
+        <v>819</v>
+      </c>
+      <c r="D4373" t="s">
+        <v>2870</v>
+      </c>
+    </row>
+    <row r="4374">
+      <c r="A4374" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4374" t="s">
+        <v>6731</v>
+      </c>
+      <c r="C4374" t="s">
+        <v>1140</v>
+      </c>
+      <c r="D4374" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="4375">
+      <c r="A4375" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4375" t="s">
+        <v>6732</v>
+      </c>
+      <c r="C4375" t="s">
+        <v>276</v>
+      </c>
+      <c r="D4375" t="s">
+        <v>6060</v>
+      </c>
+    </row>
+    <row r="4376">
+      <c r="A4376" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4376" t="s">
+        <v>6733</v>
+      </c>
+      <c r="C4376" t="s">
+        <v>117</v>
+      </c>
+      <c r="D4376" t="s">
+        <v>2704</v>
+      </c>
+    </row>
+    <row r="4377">
+      <c r="A4377" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4377" t="s">
+        <v>6734</v>
+      </c>
+      <c r="C4377" t="s">
+        <v>533</v>
+      </c>
+      <c r="D4377" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="4378">
+      <c r="A4378" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4378" t="s">
+        <v>6735</v>
+      </c>
+      <c r="C4378" t="s">
+        <v>440</v>
+      </c>
+      <c r="D4378" t="s">
+        <v>1136</v>
+      </c>
+    </row>
+    <row r="4379">
+      <c r="A4379" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4379" t="s">
+        <v>6736</v>
+      </c>
+      <c r="C4379" t="s">
+        <v>48</v>
+      </c>
+      <c r="D4379" t="s">
+        <v>1595</v>
+      </c>
+    </row>
+    <row r="4380">
+      <c r="A4380" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4380" t="s">
+        <v>6737</v>
+      </c>
+      <c r="C4380" t="s">
+        <v>1647</v>
+      </c>
+      <c r="D4380" t="s">
+        <v>6738</v>
+      </c>
+    </row>
+    <row r="4381">
+      <c r="A4381" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4381" t="s">
+        <v>6739</v>
+      </c>
+      <c r="C4381" t="s">
+        <v>701</v>
+      </c>
+      <c r="D4381" t="s">
+        <v>6558</v>
+      </c>
+    </row>
+    <row r="4382">
+      <c r="A4382" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4382" t="s">
+        <v>6740</v>
+      </c>
+      <c r="C4382" t="s">
+        <v>2249</v>
+      </c>
+      <c r="D4382" t="s">
+        <v>1186</v>
+      </c>
+    </row>
+    <row r="4383">
+      <c r="A4383" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4383" t="s">
+        <v>6741</v>
+      </c>
+      <c r="C4383" t="s">
+        <v>727</v>
+      </c>
+      <c r="D4383" t="s">
+        <v>6194</v>
+      </c>
+    </row>
+    <row r="4384">
+      <c r="A4384" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4384" t="s">
+        <v>6742</v>
+      </c>
+      <c r="C4384" t="s">
+        <v>5270</v>
+      </c>
+      <c r="D4384" t="s">
+        <v>6743</v>
+      </c>
+    </row>
+    <row r="4385">
+      <c r="A4385" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4385" t="s">
+        <v>6744</v>
+      </c>
+      <c r="C4385" t="s">
+        <v>1358</v>
+      </c>
+      <c r="D4385" t="s">
+        <v>6388</v>
+      </c>
+    </row>
+    <row r="4386">
+      <c r="A4386" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4386" t="s">
+        <v>6745</v>
+      </c>
+      <c r="C4386" t="s">
+        <v>1364</v>
+      </c>
+      <c r="D4386" t="s">
+        <v>6746</v>
+      </c>
+    </row>
+    <row r="4387">
+      <c r="A4387" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4387" t="s">
+        <v>6747</v>
+      </c>
+      <c r="C4387" t="s">
+        <v>6748</v>
+      </c>
+      <c r="D4387" t="s">
+        <v>6749</v>
+      </c>
+    </row>
+    <row r="4388">
+      <c r="A4388" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4388" t="s">
+        <v>6750</v>
+      </c>
+      <c r="C4388" t="s">
+        <v>89</v>
+      </c>
+      <c r="D4388" t="s">
+        <v>6026</v>
+      </c>
+    </row>
+    <row r="4389">
+      <c r="A4389" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4389" t="s">
+        <v>6751</v>
+      </c>
+      <c r="C4389" t="s">
+        <v>156</v>
+      </c>
+      <c r="D4389" t="s">
+        <v>6194</v>
+      </c>
+    </row>
+    <row r="4390">
+      <c r="A4390" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4390" t="s">
+        <v>6752</v>
+      </c>
+      <c r="C4390" t="s">
+        <v>48</v>
+      </c>
+      <c r="D4390" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="4391">
+      <c r="A4391" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4391" t="s">
+        <v>6753</v>
+      </c>
+      <c r="C4391" t="s">
+        <v>855</v>
+      </c>
+      <c r="D4391" t="s">
+        <v>4623</v>
+      </c>
+    </row>
+    <row r="4392">
+      <c r="A4392" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4392" t="s">
+        <v>6754</v>
+      </c>
+      <c r="C4392" t="s">
+        <v>1049</v>
+      </c>
+      <c r="D4392" t="s">
+        <v>4129</v>
+      </c>
+    </row>
+    <row r="4393">
+      <c r="A4393" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4393" t="s">
+        <v>6755</v>
+      </c>
+      <c r="C4393" t="s">
+        <v>2249</v>
+      </c>
+      <c r="D4393" t="s">
+        <v>5178</v>
+      </c>
+    </row>
+    <row r="4394">
+      <c r="A4394" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4394" t="s">
+        <v>6756</v>
+      </c>
+      <c r="C4394" t="s">
+        <v>1443</v>
+      </c>
+      <c r="D4394" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="4395">
+      <c r="A4395" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4395" t="s">
+        <v>6757</v>
+      </c>
+      <c r="C4395" t="s">
+        <v>724</v>
+      </c>
+      <c r="D4395" t="s">
+        <v>5296</v>
+      </c>
+    </row>
+    <row r="4396">
+      <c r="A4396" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4396" t="s">
+        <v>6758</v>
+      </c>
+      <c r="C4396" t="s">
+        <v>181</v>
+      </c>
+      <c r="D4396" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="4397">
+      <c r="A4397" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4397" t="s">
+        <v>6759</v>
+      </c>
+      <c r="C4397" t="s">
+        <v>635</v>
+      </c>
+      <c r="D4397" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="4398">
+      <c r="A4398" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4398" t="s">
+        <v>6760</v>
+      </c>
+      <c r="C4398" t="s">
+        <v>5897</v>
+      </c>
+      <c r="D4398" t="s">
+        <v>1840</v>
+      </c>
+    </row>
+    <row r="4399">
+      <c r="A4399" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4399" t="s">
+        <v>6761</v>
+      </c>
+      <c r="C4399" t="s">
+        <v>6762</v>
+      </c>
+      <c r="D4399" t="s">
+        <v>5840</v>
+      </c>
+    </row>
+    <row r="4400">
+      <c r="A4400" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4400" t="s">
+        <v>6763</v>
+      </c>
+      <c r="C4400" t="s">
+        <v>306</v>
+      </c>
+      <c r="D4400" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="4401">
+      <c r="A4401" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4401" t="s">
+        <v>6764</v>
+      </c>
+      <c r="C4401" t="s">
+        <v>150</v>
+      </c>
+      <c r="D4401" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="4402">
+      <c r="A4402" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4402" t="s">
+        <v>6765</v>
+      </c>
+      <c r="C4402" t="s">
+        <v>138</v>
+      </c>
+      <c r="D4402" t="s">
+        <v>6766</v>
+      </c>
+    </row>
+    <row r="4403">
+      <c r="A4403" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4403" t="s">
+        <v>6767</v>
+      </c>
+      <c r="C4403" t="s">
+        <v>5270</v>
+      </c>
+      <c r="D4403" t="s">
+        <v>6768</v>
+      </c>
+    </row>
+    <row r="4404">
+      <c r="A4404" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4404" t="s">
+        <v>6769</v>
+      </c>
+      <c r="C4404" t="s">
+        <v>816</v>
+      </c>
+      <c r="D4404" t="s">
+        <v>1530</v>
+      </c>
+    </row>
+    <row r="4405">
+      <c r="A4405" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4405" t="s">
+        <v>6770</v>
+      </c>
+      <c r="C4405" t="s">
+        <v>5270</v>
+      </c>
+      <c r="D4405" t="s">
+        <v>4809</v>
+      </c>
+    </row>
+    <row r="4406">
+      <c r="A4406" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4406" t="s">
+        <v>6771</v>
+      </c>
+      <c r="C4406" t="s">
+        <v>1140</v>
+      </c>
+      <c r="D4406" t="s">
+        <v>6772</v>
+      </c>
+    </row>
+    <row r="4407">
+      <c r="A4407" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4407" t="s">
+        <v>6773</v>
+      </c>
+      <c r="C4407" t="s">
+        <v>724</v>
+      </c>
+      <c r="D4407" t="s">
+        <v>1694</v>
+      </c>
+    </row>
+    <row r="4408">
+      <c r="A4408" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4408" t="s">
+        <v>6774</v>
+      </c>
+      <c r="C4408" t="s">
+        <v>525</v>
+      </c>
+      <c r="D4408" t="s">
+        <v>6775</v>
+      </c>
+    </row>
+    <row r="4409">
+      <c r="A4409" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4409" t="s">
+        <v>6776</v>
+      </c>
+      <c r="C4409" t="s">
+        <v>528</v>
+      </c>
+      <c r="D4409" t="s">
+        <v>6254</v>
+      </c>
+    </row>
+    <row r="4410">
+      <c r="A4410" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4410" t="s">
+        <v>6777</v>
+      </c>
+      <c r="C4410" t="s">
+        <v>83</v>
+      </c>
+      <c r="D4410" t="s">
+        <v>3368</v>
+      </c>
+    </row>
+    <row r="4411">
+      <c r="A4411" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4411" t="s">
+        <v>6778</v>
+      </c>
+      <c r="C4411" t="s">
+        <v>6779</v>
+      </c>
+      <c r="D4411" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="4412">
+      <c r="A4412" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4412" t="s">
+        <v>6780</v>
+      </c>
+      <c r="C4412" t="s">
+        <v>1084</v>
+      </c>
+      <c r="D4412" t="s">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="4413">
+      <c r="A4413" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4413" t="s">
+        <v>6781</v>
+      </c>
+      <c r="C4413" t="s">
+        <v>144</v>
+      </c>
+      <c r="D4413" t="s">
+        <v>2457</v>
+      </c>
+    </row>
+    <row r="4414">
+      <c r="A4414" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4414" t="s">
+        <v>6782</v>
+      </c>
+      <c r="C4414" t="s">
+        <v>144</v>
+      </c>
+      <c r="D4414" t="s">
+        <v>3811</v>
+      </c>
+    </row>
+    <row r="4415">
+      <c r="A4415" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4415" t="s">
+        <v>6783</v>
+      </c>
+      <c r="C4415" t="s">
+        <v>147</v>
+      </c>
+      <c r="D4415" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="4416">
+      <c r="A4416" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4416" t="s">
+        <v>6784</v>
+      </c>
+      <c r="C4416" t="s">
+        <v>767</v>
+      </c>
+      <c r="D4416" t="s">
+        <v>4585</v>
+      </c>
+    </row>
+    <row r="4417">
+      <c r="A4417" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4417" t="s">
+        <v>6785</v>
+      </c>
+      <c r="C4417" t="s">
+        <v>736</v>
+      </c>
+      <c r="D4417" t="s">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="4418">
+      <c r="A4418" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4418" t="s">
+        <v>6786</v>
+      </c>
+      <c r="C4418" t="s">
+        <v>701</v>
+      </c>
+      <c r="D4418" t="s">
+        <v>2358</v>
+      </c>
+    </row>
+    <row r="4419">
+      <c r="A4419" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4419" t="s">
+        <v>6787</v>
+      </c>
+      <c r="C4419" t="s">
+        <v>338</v>
+      </c>
+      <c r="D4419" t="s">
+        <v>3593</v>
+      </c>
+    </row>
+    <row r="4420">
+      <c r="A4420" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4420" t="s">
+        <v>6788</v>
+      </c>
+      <c r="C4420" t="s">
+        <v>1207</v>
+      </c>
+      <c r="D4420" t="s">
+        <v>6789</v>
+      </c>
+    </row>
+    <row r="4421">
+      <c r="A4421" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4421" t="s">
+        <v>6790</v>
+      </c>
+      <c r="C4421" t="s">
+        <v>483</v>
+      </c>
+      <c r="D4421" t="s">
+        <v>6791</v>
+      </c>
+    </row>
+    <row r="4422">
+      <c r="A4422" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4422" t="s">
+        <v>6792</v>
+      </c>
+      <c r="C4422" t="s">
+        <v>6470</v>
+      </c>
+      <c r="D4422" t="s">
+        <v>4606</v>
+      </c>
+    </row>
+    <row r="4423">
+      <c r="A4423" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4423" t="s">
+        <v>6793</v>
+      </c>
+      <c r="C4423" t="s">
+        <v>936</v>
+      </c>
+      <c r="D4423" t="s">
+        <v>4724</v>
+      </c>
+    </row>
+    <row r="4424">
+      <c r="A4424" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4424" t="s">
+        <v>6794</v>
+      </c>
+      <c r="C4424" t="s">
+        <v>770</v>
+      </c>
+      <c r="D4424" t="s">
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="4425">
+      <c r="A4425" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4425" t="s">
+        <v>6795</v>
+      </c>
+      <c r="C4425" t="s">
+        <v>147</v>
+      </c>
+      <c r="D4425" t="s">
+        <v>6796</v>
+      </c>
+    </row>
+    <row r="4426">
+      <c r="A4426" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4426" t="s">
+        <v>6797</v>
+      </c>
+      <c r="C4426" t="s">
+        <v>132</v>
+      </c>
+      <c r="D4426" t="s">
+        <v>5308</v>
+      </c>
+    </row>
+    <row r="4427">
+      <c r="A4427" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4427" t="s">
+        <v>6798</v>
+      </c>
+      <c r="C4427" t="s">
+        <v>775</v>
+      </c>
+      <c r="D4427" t="s">
+        <v>6799</v>
+      </c>
+    </row>
+    <row r="4428">
+      <c r="A4428" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4428" t="s">
+        <v>6800</v>
+      </c>
+      <c r="C4428" t="s">
+        <v>129</v>
+      </c>
+      <c r="D4428" t="s">
+        <v>6801</v>
+      </c>
+    </row>
+    <row r="4429">
+      <c r="A4429" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4429" t="s">
+        <v>6802</v>
+      </c>
+      <c r="C4429" t="s">
+        <v>1217</v>
+      </c>
+      <c r="D4429" t="s">
+        <v>6031</v>
+      </c>
+    </row>
+    <row r="4430">
+      <c r="A4430" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4430" t="s">
+        <v>6803</v>
+      </c>
+      <c r="C4430" t="s">
+        <v>6396</v>
+      </c>
+      <c r="D4430" t="s">
+        <v>6804</v>
+      </c>
+    </row>
+    <row r="4431">
+      <c r="A4431" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4431" t="s">
+        <v>6805</v>
+      </c>
+      <c r="C4431" t="s">
+        <v>406</v>
+      </c>
+      <c r="D4431" t="s">
+        <v>2795</v>
+      </c>
+    </row>
+    <row r="4432">
+      <c r="A4432" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4432" t="s">
+        <v>6806</v>
+      </c>
+      <c r="C4432" t="s">
+        <v>6643</v>
+      </c>
+      <c r="D4432" t="s">
+        <v>1342</v>
+      </c>
+    </row>
+    <row r="4433">
+      <c r="A4433" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4433" t="s">
+        <v>6807</v>
+      </c>
+      <c r="C4433" t="s">
+        <v>6808</v>
+      </c>
+      <c r="D4433" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="4434">
+      <c r="A4434" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4434" t="s">
+        <v>6809</v>
+      </c>
+      <c r="C4434" t="s">
+        <v>276</v>
+      </c>
+      <c r="D4434" t="s">
+        <v>1924</v>
+      </c>
+    </row>
+    <row r="4435">
+      <c r="A4435" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4435" t="s">
+        <v>6810</v>
+      </c>
+      <c r="C4435" t="s">
+        <v>1396</v>
+      </c>
+      <c r="D4435" t="s">
+        <v>4733</v>
+      </c>
+    </row>
+    <row r="4436">
+      <c r="A4436" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4436" t="s">
+        <v>6811</v>
+      </c>
+      <c r="C4436" t="s">
+        <v>825</v>
+      </c>
+      <c r="D4436" t="s">
+        <v>1965</v>
+      </c>
+    </row>
+    <row r="4437">
+      <c r="A4437" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4437" t="s">
+        <v>6812</v>
+      </c>
+      <c r="C4437" t="s">
+        <v>926</v>
+      </c>
+      <c r="D4437" t="s">
+        <v>2163</v>
+      </c>
+    </row>
+    <row r="4438">
+      <c r="A4438" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4438" t="s">
+        <v>6813</v>
+      </c>
+      <c r="C4438" t="s">
+        <v>825</v>
+      </c>
+      <c r="D4438" t="s">
+        <v>1246</v>
+      </c>
+    </row>
+    <row r="4439">
+      <c r="A4439" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4439" t="s">
+        <v>6814</v>
+      </c>
+      <c r="C4439" t="s">
+        <v>129</v>
+      </c>
+      <c r="D4439" t="s">
+        <v>1583</v>
+      </c>
+    </row>
+    <row r="4440">
+      <c r="A4440" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4440" t="s">
+        <v>6815</v>
+      </c>
+      <c r="C4440" t="s">
+        <v>704</v>
+      </c>
+      <c r="D4440" t="s">
+        <v>1573</v>
+      </c>
+    </row>
+    <row r="4441">
+      <c r="A4441" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4441" t="s">
+        <v>6816</v>
+      </c>
+      <c r="C4441" t="s">
+        <v>814</v>
+      </c>
+      <c r="D4441" t="s">
+        <v>1774</v>
+      </c>
+    </row>
+    <row r="4442">
+      <c r="A4442" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4442" t="s">
+        <v>6817</v>
+      </c>
+      <c r="C4442" t="s">
+        <v>568</v>
+      </c>
+      <c r="D4442" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="4443">
+      <c r="A4443" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4443" t="s">
+        <v>6818</v>
+      </c>
+      <c r="C4443" t="s">
+        <v>240</v>
+      </c>
+      <c r="D4443" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="4444">
+      <c r="A4444" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4444" t="s">
+        <v>6819</v>
+      </c>
+      <c r="C4444" t="s">
+        <v>860</v>
+      </c>
+      <c r="D4444" t="s">
+        <v>2701</v>
+      </c>
+    </row>
+    <row r="4445">
+      <c r="A4445" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4445" t="s">
+        <v>6820</v>
+      </c>
+      <c r="C4445" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4445" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="4446">
+      <c r="A4446" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4446" t="s">
+        <v>6821</v>
+      </c>
+      <c r="C4446" t="s">
+        <v>855</v>
+      </c>
+      <c r="D4446" t="s">
+        <v>4721</v>
+      </c>
+    </row>
+    <row r="4447">
+      <c r="A4447" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4447" t="s">
+        <v>6822</v>
+      </c>
+      <c r="C4447" t="s">
+        <v>857</v>
+      </c>
+      <c r="D4447" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="4448">
+      <c r="A4448" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4448" t="s">
+        <v>6823</v>
+      </c>
+      <c r="C4448" t="s">
+        <v>135</v>
+      </c>
+      <c r="D4448" t="s">
+        <v>3247</v>
+      </c>
+    </row>
+    <row r="4449">
+      <c r="A4449" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4449" t="s">
+        <v>6824</v>
+      </c>
+      <c r="C4449" t="s">
+        <v>701</v>
+      </c>
+      <c r="D4449" t="s">
+        <v>6825</v>
+      </c>
+    </row>
+    <row r="4450">
+      <c r="A4450" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4450" t="s">
+        <v>6826</v>
+      </c>
+      <c r="C4450" t="s">
+        <v>675</v>
+      </c>
+      <c r="D4450" t="s">
+        <v>1489</v>
+      </c>
+    </row>
+    <row r="4451">
+      <c r="A4451" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4451" t="s">
+        <v>6827</v>
+      </c>
+      <c r="C4451" t="s">
+        <v>117</v>
+      </c>
+      <c r="D4451" t="s">
+        <v>6016</v>
+      </c>
+    </row>
+    <row r="4452">
+      <c r="A4452" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4452" t="s">
+        <v>6828</v>
+      </c>
+      <c r="C4452" t="s">
+        <v>54</v>
+      </c>
+      <c r="D4452" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="4453">
+      <c r="A4453" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4453" t="s">
+        <v>6829</v>
+      </c>
+      <c r="C4453" t="s">
+        <v>6830</v>
+      </c>
+      <c r="D4453" t="s">
+        <v>6831</v>
+      </c>
+    </row>
+    <row r="4454">
+      <c r="A4454" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4454" t="s">
+        <v>6832</v>
+      </c>
+      <c r="C4454" t="s">
+        <v>571</v>
+      </c>
+      <c r="D4454" t="s">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="4455">
+      <c r="A4455" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4455" t="s">
+        <v>6833</v>
+      </c>
+      <c r="C4455" t="s">
+        <v>173</v>
+      </c>
+      <c r="D4455" t="s">
+        <v>6258</v>
+      </c>
+    </row>
+    <row r="4456">
+      <c r="A4456" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4456" t="s">
+        <v>6834</v>
+      </c>
+      <c r="C4456" t="s">
+        <v>469</v>
+      </c>
+      <c r="D4456" t="s">
+        <v>3192</v>
+      </c>
+    </row>
+    <row r="4457">
+      <c r="A4457" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4457" t="s">
+        <v>6835</v>
+      </c>
+      <c r="C4457" t="s">
+        <v>1647</v>
+      </c>
+      <c r="D4457" t="s">
+        <v>6204</v>
+      </c>
+    </row>
+    <row r="4458">
+      <c r="A4458" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4458" t="s">
+        <v>6836</v>
+      </c>
+      <c r="C4458" t="s">
+        <v>899</v>
+      </c>
+      <c r="D4458" t="s">
+        <v>1774</v>
+      </c>
+    </row>
+    <row r="4459">
+      <c r="A4459" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4459" t="s">
+        <v>6837</v>
+      </c>
+      <c r="C4459" t="s">
+        <v>730</v>
+      </c>
+      <c r="D4459" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="4460">
+      <c r="A4460" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4460" t="s">
+        <v>6838</v>
+      </c>
+      <c r="C4460" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4460" t="s">
+        <v>2507</v>
+      </c>
+    </row>
+    <row r="4461">
+      <c r="A4461" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4461" t="s">
+        <v>6839</v>
+      </c>
+      <c r="C4461" t="s">
+        <v>300</v>
+      </c>
+      <c r="D4461" t="s">
+        <v>6198</v>
+      </c>
+    </row>
+    <row r="4462">
+      <c r="A4462" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4462" t="s">
+        <v>6840</v>
+      </c>
+      <c r="C4462" t="s">
+        <v>126</v>
+      </c>
+      <c r="D4462" t="s">
+        <v>6841</v>
+      </c>
+    </row>
+    <row r="4463">
+      <c r="A4463" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4463" t="s">
+        <v>6842</v>
+      </c>
+      <c r="C4463" t="s">
+        <v>253</v>
+      </c>
+      <c r="D4463" t="s">
+        <v>5840</v>
+      </c>
+    </row>
+    <row r="4464">
+      <c r="A4464" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4464" t="s">
+        <v>6843</v>
+      </c>
+      <c r="C4464" t="s">
+        <v>5930</v>
+      </c>
+      <c r="D4464" t="s">
+        <v>6048</v>
+      </c>
+    </row>
+    <row r="4465">
+      <c r="A4465" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4465" t="s">
+        <v>6844</v>
+      </c>
+      <c r="C4465" t="s">
+        <v>150</v>
+      </c>
+      <c r="D4465" t="s">
+        <v>2397</v>
+      </c>
+    </row>
+    <row r="4466">
+      <c r="A4466" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4466" t="s">
+        <v>6845</v>
+      </c>
+      <c r="C4466" t="s">
+        <v>835</v>
+      </c>
+      <c r="D4466" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="4467">
+      <c r="A4467" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4467" t="s">
+        <v>6846</v>
+      </c>
+      <c r="C4467" t="s">
+        <v>835</v>
+      </c>
+      <c r="D4467" t="s">
+        <v>1378</v>
+      </c>
+    </row>
+    <row r="4468">
+      <c r="A4468" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4468" t="s">
+        <v>6847</v>
+      </c>
+      <c r="C4468" t="s">
+        <v>314</v>
+      </c>
+      <c r="D4468" t="s">
+        <v>1180</v>
+      </c>
+    </row>
+    <row r="4469">
+      <c r="A4469" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4469" t="s">
+        <v>6848</v>
+      </c>
+      <c r="C4469" t="s">
+        <v>6849</v>
+      </c>
+      <c r="D4469" t="s">
+        <v>6335</v>
+      </c>
+    </row>
+    <row r="4470">
+      <c r="A4470" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4470" t="s">
+        <v>6850</v>
+      </c>
+      <c r="C4470" t="s">
+        <v>5860</v>
+      </c>
+      <c r="D4470" t="s">
+        <v>6851</v>
+      </c>
+    </row>
+    <row r="4471">
+      <c r="A4471" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4471" t="s">
+        <v>6852</v>
+      </c>
+      <c r="C4471" t="s">
+        <v>814</v>
+      </c>
+      <c r="D4471" t="s">
+        <v>6853</v>
+      </c>
+    </row>
+    <row r="4472">
+      <c r="A4472" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4472" t="s">
+        <v>6854</v>
+      </c>
+      <c r="C4472" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4472" t="s">
+        <v>2036</v>
+      </c>
+    </row>
+    <row r="4473">
+      <c r="A4473" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4473" t="s">
+        <v>6855</v>
+      </c>
+      <c r="C4473" t="s">
+        <v>770</v>
+      </c>
+      <c r="D4473" t="s">
+        <v>1762</v>
+      </c>
+    </row>
+    <row r="4474">
+      <c r="A4474" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4474" t="s">
+        <v>6856</v>
+      </c>
+      <c r="C4474" t="s">
+        <v>899</v>
+      </c>
+      <c r="D4474" t="s">
+        <v>2412</v>
+      </c>
+    </row>
+    <row r="4475">
+      <c r="A4475" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4475" t="s">
+        <v>6857</v>
+      </c>
+      <c r="C4475" t="s">
+        <v>314</v>
+      </c>
+      <c r="D4475" t="s">
+        <v>1097</v>
+      </c>
+    </row>
+    <row r="4476">
+      <c r="A4476" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4476" t="s">
+        <v>6858</v>
+      </c>
+      <c r="C4476" t="s">
+        <v>5713</v>
+      </c>
+      <c r="D4476" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="4477">
+      <c r="A4477" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4477" t="s">
+        <v>6859</v>
+      </c>
+      <c r="C4477" t="s">
+        <v>329</v>
+      </c>
+      <c r="D4477" t="s">
+        <v>4585</v>
+      </c>
+    </row>
+    <row r="4478">
+      <c r="A4478" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4478" t="s">
+        <v>6860</v>
+      </c>
+      <c r="C4478" t="s">
+        <v>899</v>
+      </c>
+      <c r="D4478" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="4479">
+      <c r="A4479" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4479" t="s">
+        <v>6861</v>
+      </c>
+      <c r="C4479" t="s">
+        <v>736</v>
+      </c>
+      <c r="D4479" t="s">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="4480">
+      <c r="A4480" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4480" t="s">
+        <v>6862</v>
+      </c>
+      <c r="C4480" t="s">
+        <v>775</v>
+      </c>
+      <c r="D4480" t="s">
+        <v>2428</v>
+      </c>
+    </row>
+    <row r="4481">
+      <c r="A4481" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4481" t="s">
+        <v>6863</v>
+      </c>
+      <c r="C4481" t="s">
+        <v>1149</v>
+      </c>
+      <c r="D4481" t="s">
+        <v>2163</v>
+      </c>
+    </row>
+    <row r="4482">
+      <c r="A4482" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4482" t="s">
+        <v>6864</v>
+      </c>
+      <c r="C4482" t="s">
+        <v>1217</v>
+      </c>
+      <c r="D4482" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="4483">
+      <c r="A4483" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4483" t="s">
+        <v>6865</v>
+      </c>
+      <c r="C4483" t="s">
+        <v>144</v>
+      </c>
+      <c r="D4483" t="s">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="4484">
+      <c r="A4484" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4484" t="s">
+        <v>6866</v>
+      </c>
+      <c r="C4484" t="s">
+        <v>1384</v>
+      </c>
+      <c r="D4484" t="s">
+        <v>6867</v>
+      </c>
+    </row>
+    <row r="4485">
+      <c r="A4485" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4485" t="s">
+        <v>6868</v>
+      </c>
+      <c r="C4485" t="s">
+        <v>1443</v>
+      </c>
+      <c r="D4485" t="s">
+        <v>6869</v>
+      </c>
+    </row>
+    <row r="4486">
+      <c r="A4486" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4486" t="s">
+        <v>6870</v>
+      </c>
+      <c r="C4486" t="s">
+        <v>1049</v>
+      </c>
+      <c r="D4486" t="s">
+        <v>6242</v>
+      </c>
+    </row>
+    <row r="4487">
+      <c r="A4487" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4487" t="s">
+        <v>6871</v>
+      </c>
+      <c r="C4487" t="s">
+        <v>767</v>
+      </c>
+      <c r="D4487" t="s">
+        <v>1201</v>
+      </c>
+    </row>
+    <row r="4488">
+      <c r="A4488" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4488" t="s">
+        <v>6872</v>
+      </c>
+      <c r="C4488" t="s">
+        <v>147</v>
+      </c>
+      <c r="D4488" t="s">
+        <v>6873</v>
+      </c>
+    </row>
+    <row r="4489">
+      <c r="A4489" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4489" t="s">
+        <v>6874</v>
+      </c>
+      <c r="C4489" t="s">
+        <v>144</v>
+      </c>
+      <c r="D4489" t="s">
+        <v>6875</v>
+      </c>
+    </row>
+    <row r="4490">
+      <c r="A4490" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4490" t="s">
+        <v>6876</v>
+      </c>
+      <c r="C4490" t="s">
+        <v>762</v>
+      </c>
+      <c r="D4490" t="s">
+        <v>5367</v>
+      </c>
+    </row>
+    <row r="4491">
+      <c r="A4491" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4491" t="s">
+        <v>6877</v>
+      </c>
+      <c r="C4491" t="s">
+        <v>879</v>
+      </c>
+      <c r="D4491" t="s">
+        <v>6878</v>
+      </c>
+    </row>
+    <row r="4492">
+      <c r="A4492" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4492" t="s">
+        <v>6879</v>
+      </c>
+      <c r="C4492" t="s">
+        <v>757</v>
+      </c>
+      <c r="D4492" t="s">
+        <v>6880</v>
+      </c>
+    </row>
+    <row r="4493">
+      <c r="A4493" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4493" t="s">
+        <v>6881</v>
+      </c>
+      <c r="C4493" t="s">
+        <v>1542</v>
+      </c>
+      <c r="D4493" t="s">
+        <v>3251</v>
+      </c>
+    </row>
+    <row r="4494">
+      <c r="A4494" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4494" t="s">
+        <v>6882</v>
+      </c>
+      <c r="C4494" t="s">
+        <v>668</v>
+      </c>
+      <c r="D4494" t="s">
+        <v>6883</v>
+      </c>
+    </row>
+    <row r="4495">
+      <c r="A4495" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4495" t="s">
+        <v>6884</v>
+      </c>
+      <c r="C4495" t="s">
+        <v>1154</v>
+      </c>
+      <c r="D4495" t="s">
+        <v>6885</v>
+      </c>
+    </row>
+    <row r="4496">
+      <c r="A4496" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4496" t="s">
+        <v>6886</v>
+      </c>
+      <c r="C4496" t="s">
+        <v>2760</v>
+      </c>
+      <c r="D4496" t="s">
+        <v>5866</v>
+      </c>
+    </row>
+    <row r="4497">
+      <c r="A4497" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4497" t="s">
+        <v>6887</v>
+      </c>
+      <c r="C4497" t="s">
+        <v>6524</v>
+      </c>
+      <c r="D4497" t="s">
+        <v>1548</v>
+      </c>
+    </row>
+    <row r="4498">
+      <c r="A4498" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4498" t="s">
+        <v>6888</v>
+      </c>
+      <c r="C4498" t="s">
+        <v>770</v>
+      </c>
+      <c r="D4498" t="s">
+        <v>3828</v>
+      </c>
+    </row>
+    <row r="4499">
+      <c r="A4499" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4499" t="s">
+        <v>6889</v>
+      </c>
+      <c r="C4499" t="s">
+        <v>1566</v>
+      </c>
+      <c r="D4499" t="s">
+        <v>5998</v>
+      </c>
+    </row>
+    <row r="4500">
+      <c r="A4500" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4500" t="s">
+        <v>6890</v>
+      </c>
+      <c r="C4500" t="s">
+        <v>899</v>
+      </c>
+      <c r="D4500" t="s">
+        <v>6891</v>
+      </c>
+    </row>
+    <row r="4501">
+      <c r="A4501" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4501" t="s">
+        <v>6892</v>
+      </c>
+      <c r="C4501" t="s">
+        <v>1112</v>
+      </c>
+      <c r="D4501" t="s">
+        <v>6893</v>
+      </c>
+    </row>
+    <row r="4502">
+      <c r="A4502" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4502" t="s">
+        <v>6894</v>
+      </c>
+      <c r="C4502" t="s">
+        <v>326</v>
+      </c>
+      <c r="D4502" t="s">
+        <v>2600</v>
+      </c>
+    </row>
+    <row r="4503">
+      <c r="A4503" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4503" t="s">
+        <v>6895</v>
+      </c>
+      <c r="C4503" t="s">
+        <v>234</v>
+      </c>
+      <c r="D4503" t="s">
+        <v>6896</v>
+      </c>
+    </row>
+    <row r="4504">
+      <c r="A4504" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4504" t="s">
+        <v>6897</v>
+      </c>
+      <c r="C4504" t="s">
+        <v>428</v>
+      </c>
+      <c r="D4504" t="s">
+        <v>2812</v>
+      </c>
+    </row>
+    <row r="4505">
+      <c r="A4505" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4505" t="s">
+        <v>6898</v>
+      </c>
+      <c r="C4505" t="s">
+        <v>105</v>
+      </c>
+      <c r="D4505" t="s">
+        <v>2382</v>
+      </c>
+    </row>
+    <row r="4506">
+      <c r="A4506" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4506" t="s">
+        <v>6899</v>
+      </c>
+      <c r="C4506" t="s">
+        <v>240</v>
+      </c>
+      <c r="D4506" t="s">
+        <v>1507</v>
+      </c>
+    </row>
+    <row r="4507">
+      <c r="A4507" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4507" t="s">
+        <v>6900</v>
+      </c>
+      <c r="C4507" t="s">
+        <v>2104</v>
+      </c>
+      <c r="D4507" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="4508">
+      <c r="A4508" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4508" t="s">
+        <v>6901</v>
+      </c>
+      <c r="C4508" t="s">
+        <v>1112</v>
+      </c>
+      <c r="D4508" t="s">
+        <v>1194</v>
+      </c>
+    </row>
+    <row r="4509">
+      <c r="A4509" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4509" t="s">
+        <v>6902</v>
+      </c>
+      <c r="C4509" t="s">
+        <v>733</v>
+      </c>
+      <c r="D4509" t="s">
+        <v>6903</v>
+      </c>
+    </row>
+    <row r="4510">
+      <c r="A4510" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4510" t="s">
+        <v>6904</v>
+      </c>
+      <c r="C4510" t="s">
+        <v>733</v>
+      </c>
+      <c r="D4510" t="s">
+        <v>6252</v>
+      </c>
+    </row>
+    <row r="4511">
+      <c r="A4511" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4511" t="s">
+        <v>6905</v>
+      </c>
+      <c r="C4511" t="s">
+        <v>835</v>
+      </c>
+      <c r="D4511" t="s">
+        <v>6896</v>
+      </c>
+    </row>
+    <row r="4512">
+      <c r="A4512" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4512" t="s">
+        <v>6906</v>
+      </c>
+      <c r="C4512" t="s">
+        <v>303</v>
+      </c>
+      <c r="D4512" t="s">
+        <v>6907</v>
+      </c>
+    </row>
+    <row r="4513">
+      <c r="A4513" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4513" t="s">
+        <v>6908</v>
+      </c>
+      <c r="C4513" t="s">
+        <v>83</v>
+      </c>
+      <c r="D4513" t="s">
+        <v>3146</v>
+      </c>
+    </row>
+    <row r="4514">
+      <c r="A4514" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4514" t="s">
+        <v>6909</v>
+      </c>
+      <c r="C4514" t="s">
+        <v>6910</v>
+      </c>
+      <c r="D4514" t="s">
+        <v>6911</v>
+      </c>
+    </row>
+    <row r="4515">
+      <c r="A4515" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4515" t="s">
+        <v>6912</v>
+      </c>
+      <c r="C4515" t="s">
+        <v>1105</v>
+      </c>
+      <c r="D4515" t="s">
+        <v>1194</v>
+      </c>
+    </row>
+    <row r="4516">
+      <c r="A4516" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4516" t="s">
+        <v>6913</v>
+      </c>
+      <c r="C4516" t="s">
+        <v>6057</v>
+      </c>
+      <c r="D4516" t="s">
+        <v>4601</v>
+      </c>
+    </row>
+    <row r="4517">
+      <c r="A4517" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4517" t="s">
+        <v>6914</v>
+      </c>
+      <c r="C4517" t="s">
+        <v>691</v>
+      </c>
+      <c r="D4517" t="s">
+        <v>2123</v>
+      </c>
+    </row>
+    <row r="4518">
+      <c r="A4518" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4518" t="s">
+        <v>6915</v>
+      </c>
+      <c r="C4518" t="s">
+        <v>770</v>
+      </c>
+      <c r="D4518" t="s">
+        <v>1621</v>
+      </c>
+    </row>
+    <row r="4519">
+      <c r="A4519" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4519" t="s">
+        <v>6916</v>
+      </c>
+      <c r="C4519" t="s">
+        <v>724</v>
+      </c>
+      <c r="D4519" t="s">
+        <v>1539</v>
+      </c>
+    </row>
+    <row r="4520">
+      <c r="A4520" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4520" t="s">
+        <v>6917</v>
+      </c>
+      <c r="C4520" t="s">
+        <v>958</v>
+      </c>
+      <c r="D4520" t="s">
+        <v>2306</v>
+      </c>
+    </row>
+    <row r="4521">
+      <c r="A4521" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4521" t="s">
+        <v>6918</v>
+      </c>
+      <c r="C4521" t="s">
+        <v>819</v>
+      </c>
+      <c r="D4521" t="s">
+        <v>1219</v>
+      </c>
+    </row>
+    <row r="4522">
+      <c r="A4522" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4522" t="s">
+        <v>6919</v>
+      </c>
+      <c r="C4522" t="s">
+        <v>757</v>
+      </c>
+      <c r="D4522" t="s">
+        <v>5296</v>
+      </c>
+    </row>
+    <row r="4523">
+      <c r="A4523" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4523" t="s">
+        <v>6920</v>
+      </c>
+      <c r="C4523" t="s">
+        <v>2104</v>
+      </c>
+      <c r="D4523" t="s">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="4524">
+      <c r="A4524" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4524" t="s">
+        <v>6921</v>
+      </c>
+      <c r="C4524" t="s">
+        <v>704</v>
+      </c>
+      <c r="D4524" t="s">
+        <v>4721</v>
+      </c>
+    </row>
+    <row r="4525">
+      <c r="A4525" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4525" t="s">
+        <v>6922</v>
+      </c>
+      <c r="C4525" t="s">
+        <v>6489</v>
+      </c>
+      <c r="D4525" t="s">
+        <v>1621</v>
+      </c>
+    </row>
+    <row r="4526">
+      <c r="A4526" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4526" t="s">
+        <v>6923</v>
+      </c>
+      <c r="C4526" t="s">
+        <v>111</v>
+      </c>
+      <c r="D4526" t="s">
+        <v>1573</v>
+      </c>
+    </row>
+    <row r="4527">
+      <c r="A4527" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4527" t="s">
+        <v>6924</v>
+      </c>
+      <c r="C4527" t="s">
+        <v>45</v>
+      </c>
+      <c r="D4527" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="4528">
+      <c r="A4528" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4528" t="s">
+        <v>6925</v>
+      </c>
+      <c r="C4528" t="s">
+        <v>855</v>
+      </c>
+      <c r="D4528" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="4529">
+      <c r="A4529" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4529" t="s">
+        <v>6926</v>
+      </c>
+      <c r="C4529" t="s">
+        <v>1566</v>
+      </c>
+      <c r="D4529" t="s">
+        <v>1397</v>
+      </c>
+    </row>
+    <row r="4530">
+      <c r="A4530" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4530" t="s">
+        <v>6927</v>
+      </c>
+      <c r="C4530" t="s">
+        <v>1443</v>
+      </c>
+      <c r="D4530" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="4531">
+      <c r="A4531" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4531" t="s">
+        <v>6928</v>
+      </c>
+      <c r="C4531" t="s">
+        <v>1787</v>
+      </c>
+      <c r="D4531" t="s">
+        <v>2306</v>
+      </c>
+    </row>
+    <row r="4532">
+      <c r="A4532" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4532" t="s">
+        <v>6929</v>
+      </c>
+      <c r="C4532" t="s">
+        <v>691</v>
+      </c>
+      <c r="D4532" t="s">
+        <v>4692</v>
+      </c>
+    </row>
+    <row r="4533">
+      <c r="A4533" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4533" t="s">
+        <v>6930</v>
+      </c>
+      <c r="C4533" t="s">
+        <v>545</v>
+      </c>
+      <c r="D4533" t="s">
+        <v>5663</v>
+      </c>
+    </row>
+    <row r="4534">
+      <c r="A4534" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4534" t="s">
+        <v>6931</v>
+      </c>
+      <c r="C4534" t="s">
+        <v>351</v>
+      </c>
+      <c r="D4534" t="s">
+        <v>4098</v>
+      </c>
+    </row>
+    <row r="4535">
+      <c r="A4535" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4535" t="s">
+        <v>6932</v>
+      </c>
+      <c r="C4535" t="s">
+        <v>317</v>
+      </c>
+      <c r="D4535" t="s">
+        <v>6933</v>
+      </c>
+    </row>
+    <row r="4536">
+      <c r="A4536" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4536" t="s">
+        <v>6934</v>
+      </c>
+      <c r="C4536" t="s">
+        <v>1364</v>
+      </c>
+      <c r="D4536" t="s">
+        <v>4372</v>
+      </c>
+    </row>
+    <row r="4537">
+      <c r="A4537" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4537" t="s">
+        <v>6935</v>
+      </c>
+      <c r="C4537" t="s">
+        <v>150</v>
+      </c>
+      <c r="D4537" t="s">
+        <v>1603</v>
+      </c>
+    </row>
+    <row r="4538">
+      <c r="A4538" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4538" t="s">
+        <v>6936</v>
+      </c>
+      <c r="C4538" t="s">
+        <v>2104</v>
+      </c>
+      <c r="D4538" t="s">
+        <v>2123</v>
+      </c>
+    </row>
+    <row r="4539">
+      <c r="A4539" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4539" t="s">
+        <v>6937</v>
+      </c>
+      <c r="C4539" t="s">
+        <v>835</v>
+      </c>
+      <c r="D4539" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="4540">
+      <c r="A4540" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4540" t="s">
+        <v>6938</v>
+      </c>
+      <c r="C4540" t="s">
+        <v>1566</v>
+      </c>
+      <c r="D4540" t="s">
+        <v>1176</v>
+      </c>
+    </row>
+    <row r="4541">
+      <c r="A4541" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4541" t="s">
+        <v>6939</v>
+      </c>
+      <c r="C4541" t="s">
+        <v>1112</v>
+      </c>
+      <c r="D4541" t="s">
+        <v>5021</v>
+      </c>
+    </row>
+    <row r="4542">
+      <c r="A4542" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4542" t="s">
+        <v>6940</v>
+      </c>
+      <c r="C4542" t="s">
+        <v>721</v>
+      </c>
+      <c r="D4542" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="4543">
+      <c r="A4543" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4543" t="s">
+        <v>6941</v>
+      </c>
+      <c r="C4543" t="s">
+        <v>5777</v>
+      </c>
+      <c r="D4543" t="s">
+        <v>1097</v>
+      </c>
+    </row>
+    <row r="4544">
+      <c r="A4544" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4544" t="s">
+        <v>6942</v>
+      </c>
+      <c r="C4544" t="s">
+        <v>167</v>
+      </c>
+      <c r="D4544" t="s">
+        <v>6775</v>
+      </c>
+    </row>
+    <row r="4545">
+      <c r="A4545" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4545" t="s">
+        <v>6943</v>
+      </c>
+      <c r="C4545" t="s">
+        <v>6080</v>
+      </c>
+      <c r="D4545" t="s">
+        <v>6342</v>
+      </c>
+    </row>
+    <row r="4546">
+      <c r="A4546" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4546" t="s">
+        <v>6944</v>
+      </c>
+      <c r="C4546" t="s">
+        <v>108</v>
+      </c>
+      <c r="D4546" t="s">
+        <v>6945</v>
+      </c>
+    </row>
+    <row r="4547">
+      <c r="A4547" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4547" t="s">
+        <v>6946</v>
+      </c>
+      <c r="C4547" t="s">
+        <v>51</v>
+      </c>
+      <c r="D4547" t="s">
+        <v>6048</v>
+      </c>
+    </row>
+    <row r="4548">
+      <c r="A4548" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4548" t="s">
+        <v>6947</v>
+      </c>
+      <c r="C4548" t="s">
+        <v>608</v>
+      </c>
+      <c r="D4548" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="4549">
+      <c r="A4549" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4549" t="s">
+        <v>6948</v>
+      </c>
+      <c r="C4549" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4549" t="s">
+        <v>6949</v>
+      </c>
+    </row>
+    <row r="4550">
+      <c r="A4550" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4550" t="s">
+        <v>6950</v>
+      </c>
+      <c r="C4550" t="s">
+        <v>835</v>
+      </c>
+      <c r="D4550" t="s">
+        <v>2042</v>
+      </c>
+    </row>
+    <row r="4551">
+      <c r="A4551" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4551" t="s">
+        <v>6951</v>
+      </c>
+      <c r="C4551" t="s">
+        <v>855</v>
+      </c>
+      <c r="D4551" t="s">
+        <v>6952</v>
+      </c>
+    </row>
+    <row r="4552">
+      <c r="A4552" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4552" t="s">
+        <v>6953</v>
+      </c>
+      <c r="C4552" t="s">
+        <v>936</v>
+      </c>
+      <c r="D4552" t="s">
+        <v>5932</v>
+      </c>
+    </row>
+    <row r="4553">
+      <c r="A4553" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4553" t="s">
+        <v>6954</v>
+      </c>
+      <c r="C4553" t="s">
+        <v>872</v>
+      </c>
+      <c r="D4553" t="s">
+        <v>6955</v>
+      </c>
+    </row>
+    <row r="4554">
+      <c r="A4554" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4554" t="s">
+        <v>6956</v>
+      </c>
+      <c r="C4554" t="s">
+        <v>1445</v>
+      </c>
+      <c r="D4554" t="s">
+        <v>6957</v>
+      </c>
+    </row>
+    <row r="4555">
+      <c r="A4555" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4555" t="s">
+        <v>6958</v>
+      </c>
+      <c r="C4555" t="s">
+        <v>99</v>
+      </c>
+      <c r="D4555" t="s">
+        <v>6867</v>
+      </c>
+    </row>
+    <row r="4556">
+      <c r="A4556" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4556" t="s">
+        <v>6959</v>
+      </c>
+      <c r="C4556" t="s">
+        <v>99</v>
+      </c>
+      <c r="D4556" t="s">
+        <v>1295</v>
+      </c>
+    </row>
+    <row r="4557">
+      <c r="A4557" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4557" t="s">
+        <v>6960</v>
+      </c>
+      <c r="C4557" t="s">
+        <v>6961</v>
+      </c>
+      <c r="D4557" t="s">
+        <v>1875</v>
+      </c>
+    </row>
+    <row r="4558">
+      <c r="A4558" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4558" t="s">
+        <v>6962</v>
+      </c>
+      <c r="C4558" t="s">
+        <v>6396</v>
+      </c>
+      <c r="D4558" t="s">
+        <v>2870</v>
+      </c>
+    </row>
+    <row r="4559">
+      <c r="A4559" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4559" t="s">
+        <v>6963</v>
+      </c>
+      <c r="C4559" t="s">
+        <v>1112</v>
+      </c>
+      <c r="D4559" t="s">
+        <v>4623</v>
+      </c>
+    </row>
+    <row r="4560">
+      <c r="A4560" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4560" t="s">
+        <v>6964</v>
+      </c>
+      <c r="C4560" t="s">
+        <v>1019</v>
+      </c>
+      <c r="D4560" t="s">
+        <v>1356</v>
+      </c>
+    </row>
+    <row r="4561">
+      <c r="A4561" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4561" t="s">
+        <v>6965</v>
+      </c>
+      <c r="C4561" t="s">
+        <v>899</v>
+      </c>
+      <c r="D4561" t="s">
+        <v>2135</v>
+      </c>
+    </row>
+    <row r="4562">
+      <c r="A4562" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4562" t="s">
+        <v>6966</v>
+      </c>
+      <c r="C4562" t="s">
+        <v>1443</v>
+      </c>
+      <c r="D4562" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="4563">
+      <c r="A4563" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4563" t="s">
+        <v>6967</v>
+      </c>
+      <c r="C4563" t="s">
+        <v>338</v>
+      </c>
+      <c r="D4563" t="s">
+        <v>1378</v>
+      </c>
+    </row>
+    <row r="4564">
+      <c r="A4564" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4564" t="s">
+        <v>6968</v>
+      </c>
+      <c r="C4564" t="s">
+        <v>425</v>
+      </c>
+      <c r="D4564" t="s">
+        <v>1194</v>
+      </c>
+    </row>
+    <row r="4565">
+      <c r="A4565" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4565" t="s">
+        <v>6969</v>
+      </c>
+      <c r="C4565" t="s">
+        <v>6970</v>
+      </c>
+      <c r="D4565" t="s">
+        <v>5342</v>
+      </c>
+    </row>
+    <row r="4566">
+      <c r="A4566" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4566" t="s">
+        <v>6971</v>
+      </c>
+      <c r="C4566" t="s">
+        <v>6447</v>
+      </c>
+      <c r="D4566" t="s">
+        <v>4091</v>
+      </c>
+    </row>
+    <row r="4567">
+      <c r="A4567" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4567" t="s">
+        <v>6972</v>
+      </c>
+      <c r="C4567" t="s">
+        <v>932</v>
+      </c>
+      <c r="D4567" t="s">
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="4568">
+      <c r="A4568" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4568" t="s">
+        <v>6973</v>
+      </c>
+      <c r="C4568" t="s">
+        <v>6149</v>
+      </c>
+      <c r="D4568" t="s">
+        <v>2211</v>
+      </c>
+    </row>
+    <row r="4569">
+      <c r="A4569" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4569" t="s">
+        <v>6974</v>
+      </c>
+      <c r="C4569" t="s">
+        <v>1203</v>
+      </c>
+      <c r="D4569" t="s">
+        <v>2397</v>
+      </c>
+    </row>
+    <row r="4570">
+      <c r="A4570" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4570" t="s">
+        <v>6975</v>
+      </c>
+      <c r="C4570" t="s">
+        <v>1635</v>
+      </c>
+      <c r="D4570" t="s">
+        <v>1127</v>
+      </c>
+    </row>
+    <row r="4571">
+      <c r="A4571" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4571" t="s">
+        <v>6976</v>
+      </c>
+      <c r="C4571" t="s">
+        <v>936</v>
+      </c>
+      <c r="D4571" t="s">
+        <v>5173</v>
+      </c>
+    </row>
+    <row r="4572">
+      <c r="A4572" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4572" t="s">
+        <v>6977</v>
+      </c>
+      <c r="C4572" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4572" t="s">
+        <v>5663</v>
+      </c>
+    </row>
+    <row r="4573">
+      <c r="A4573" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4573" t="s">
+        <v>6978</v>
+      </c>
+      <c r="C4573" t="s">
+        <v>545</v>
+      </c>
+      <c r="D4573" t="s">
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="4574">
+      <c r="A4574" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4574" t="s">
+        <v>6979</v>
+      </c>
+      <c r="C4574" t="s">
+        <v>6980</v>
+      </c>
+      <c r="D4574" t="s">
+        <v>6254</v>
+      </c>
+    </row>
+    <row r="4575">
+      <c r="A4575" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4575" t="s">
+        <v>6981</v>
+      </c>
+      <c r="C4575" t="s">
+        <v>6982</v>
+      </c>
+      <c r="D4575" t="s">
+        <v>1840</v>
+      </c>
+    </row>
+    <row r="4576">
+      <c r="A4576" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4576" t="s">
+        <v>6983</v>
+      </c>
+      <c r="C4576" t="s">
+        <v>713</v>
+      </c>
+      <c r="D4576" t="s">
+        <v>6984</v>
+      </c>
+    </row>
+    <row r="4577">
+      <c r="A4577" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4577" t="s">
+        <v>6985</v>
+      </c>
+      <c r="C4577" t="s">
+        <v>6986</v>
+      </c>
+      <c r="D4577" t="s">
+        <v>6987</v>
+      </c>
+    </row>
+    <row r="4578">
+      <c r="A4578" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4578" t="s">
+        <v>6988</v>
+      </c>
+      <c r="C4578" t="s">
+        <v>184</v>
+      </c>
+      <c r="D4578" t="s">
+        <v>6989</v>
+      </c>
+    </row>
+    <row r="4579">
+      <c r="A4579" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4579" t="s">
+        <v>6990</v>
+      </c>
+      <c r="C4579" t="s">
+        <v>398</v>
+      </c>
+      <c r="D4579" t="s">
+        <v>6083</v>
+      </c>
+    </row>
+    <row r="4580">
+      <c r="A4580" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4580" t="s">
+        <v>6991</v>
+      </c>
+      <c r="C4580" t="s">
+        <v>243</v>
+      </c>
+      <c r="D4580" t="s">
+        <v>4134</v>
+      </c>
+    </row>
+    <row r="4581">
+      <c r="A4581" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4581" t="s">
+        <v>6992</v>
+      </c>
+      <c r="C4581" t="s">
+        <v>469</v>
+      </c>
+      <c r="D4581" t="s">
+        <v>1621</v>
+      </c>
+    </row>
+    <row r="4582">
+      <c r="A4582" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4582" t="s">
+        <v>6993</v>
+      </c>
+      <c r="C4582" t="s">
+        <v>178</v>
+      </c>
+      <c r="D4582" t="s">
+        <v>1228</v>
+      </c>
+    </row>
+    <row r="4583">
+      <c r="A4583" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4583" t="s">
+        <v>6994</v>
+      </c>
+      <c r="C4583" t="s">
+        <v>240</v>
+      </c>
+      <c r="D4583" t="s">
+        <v>5911</v>
+      </c>
+    </row>
+    <row r="4584">
+      <c r="A4584" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4584" t="s">
+        <v>6995</v>
+      </c>
+      <c r="C4584" t="s">
+        <v>406</v>
+      </c>
+      <c r="D4584" t="s">
+        <v>3825</v>
+      </c>
+    </row>
+    <row r="4585">
+      <c r="A4585" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4585" t="s">
+        <v>6996</v>
+      </c>
+      <c r="C4585" t="s">
+        <v>6997</v>
+      </c>
+      <c r="D4585" t="s">
+        <v>6998</v>
+      </c>
+    </row>
+    <row r="4586">
+      <c r="A4586" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4586" t="s">
+        <v>6999</v>
+      </c>
+      <c r="C4586" t="s">
+        <v>5947</v>
+      </c>
+      <c r="D4586" t="s">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="4587">
+      <c r="A4587" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4587" t="s">
+        <v>7001</v>
+      </c>
+      <c r="C4587" t="s">
+        <v>6153</v>
+      </c>
+      <c r="D4587" t="s">
+        <v>1451</v>
+      </c>
+    </row>
+    <row r="4588">
+      <c r="A4588" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4588" t="s">
+        <v>7002</v>
+      </c>
+      <c r="C4588" t="s">
+        <v>2760</v>
+      </c>
+      <c r="D4588" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="4589">
+      <c r="A4589" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4589" t="s">
+        <v>7003</v>
+      </c>
+      <c r="C4589" t="s">
+        <v>721</v>
+      </c>
+      <c r="D4589" t="s">
+        <v>7004</v>
+      </c>
+    </row>
+    <row r="4590">
+      <c r="A4590" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4590" t="s">
+        <v>7005</v>
+      </c>
+      <c r="C4590" t="s">
+        <v>727</v>
+      </c>
+      <c r="D4590" t="s">
+        <v>1164</v>
+      </c>
+    </row>
+    <row r="4591">
+      <c r="A4591" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4591" t="s">
+        <v>7006</v>
+      </c>
+      <c r="C4591" t="s">
+        <v>727</v>
+      </c>
+      <c r="D4591" t="s">
+        <v>2870</v>
+      </c>
+    </row>
+    <row r="4592">
+      <c r="A4592" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4592" t="s">
+        <v>7007</v>
+      </c>
+      <c r="C4592" t="s">
+        <v>5270</v>
+      </c>
+      <c r="D4592" t="s">
+        <v>1164</v>
+      </c>
+    </row>
+    <row r="4593">
+      <c r="A4593" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4593" t="s">
+        <v>7008</v>
+      </c>
+      <c r="C4593" t="s">
+        <v>1114</v>
+      </c>
+      <c r="D4593" t="s">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="4594">
+      <c r="A4594" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4594" t="s">
+        <v>7009</v>
+      </c>
+      <c r="C4594" t="s">
+        <v>724</v>
+      </c>
+      <c r="D4594" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="4595">
+      <c r="A4595" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4595" t="s">
+        <v>7010</v>
+      </c>
+      <c r="C4595" t="s">
+        <v>311</v>
+      </c>
+      <c r="D4595" t="s">
+        <v>4623</v>
+      </c>
+    </row>
+    <row r="4596">
+      <c r="A4596" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4596" t="s">
+        <v>7011</v>
+      </c>
+      <c r="C4596" t="s">
+        <v>6322</v>
+      </c>
+      <c r="D4596" t="s">
+        <v>7012</v>
+      </c>
+    </row>
+    <row r="4597">
+      <c r="A4597" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4597" t="s">
+        <v>7013</v>
+      </c>
+      <c r="C4597" t="s">
+        <v>285</v>
+      </c>
+      <c r="D4597" t="s">
+        <v>1783</v>
+      </c>
+    </row>
+    <row r="4598">
+      <c r="A4598" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4598" t="s">
+        <v>7014</v>
+      </c>
+      <c r="C4598" t="s">
+        <v>7015</v>
+      </c>
+      <c r="D4598" t="s">
+        <v>7016</v>
+      </c>
+    </row>
+    <row r="4599">
+      <c r="A4599" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4599" t="s">
+        <v>7017</v>
+      </c>
+      <c r="C4599" t="s">
+        <v>5713</v>
+      </c>
+      <c r="D4599" t="s">
+        <v>2029</v>
+      </c>
+    </row>
+    <row r="4600">
+      <c r="A4600" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4600" t="s">
+        <v>7018</v>
+      </c>
+      <c r="C4600" t="s">
+        <v>71</v>
+      </c>
+      <c r="D4600" t="s">
+        <v>6738</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
